--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D710EDA-EA8A-46ED-85C4-A4AA5CCA7D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0726D08-85E0-46A1-ABDB-C0DFC72CC977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,23 +121,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -145,9 +163,20 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -165,11 +194,27 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -178,9 +223,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -189,9 +234,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -200,9 +245,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -211,9 +256,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -222,9 +267,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -233,9 +278,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -244,24 +289,21 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -332,20 +374,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I101" headerRowDxfId="15" dataDxfId="5">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="Package Version" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="Package Version" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -354,14 +396,14 @@
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name"/>
-    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="Process Name" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="Process Name" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -369,13 +411,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E80" totalsRowShown="0">
   <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -662,128 +704,1135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="1" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,8 +1858,8 @@
     <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -829,296 +1878,296 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G3" s="2"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G5" s="1"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G6" s="1"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G8" s="1"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G11" s="1"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G15" s="1"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G16" s="1"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" s="1"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" s="1"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" s="1"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" s="1"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" s="1"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G22" s="1"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G23" s="1"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G24" s="1"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G25" s="1"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G26" s="1"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G27" s="1"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G28" s="1"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G29" s="1"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G30" s="1"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G31" s="1"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G32" s="1"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="1"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G34" s="1"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="1"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G36" s="1"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G37" s="1"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G38" s="1"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G39" s="1"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="1"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G41" s="1"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="1"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G43" s="1"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G44" s="1"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G45" s="1"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G46" s="1"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G47" s="1"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G48" s="1"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="1"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="1"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="1"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" s="1"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="1"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="1"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="1"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="1"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" s="1"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="1"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="1"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" s="1"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="1"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="1"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" s="1"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="1"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="1"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G66" s="1"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G67" s="1"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G68" s="1"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G69" s="1"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G70" s="1"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G71" s="1"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G72" s="1"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G73" s="1"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G74" s="1"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G75" s="1"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G76" s="1"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G77" s="1"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G78" s="1"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G79" s="1"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G80" s="1"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G81" s="1"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G82" s="1"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G83" s="1"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G84" s="1"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G85" s="1"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G86" s="1"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G87" s="1"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G88" s="1"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G89" s="1"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G90" s="1"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G91" s="1"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G92" s="1"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G93" s="1"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G94" s="1"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G95" s="1"/>
+      <c r="G95" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1144,6 +2193,7 @@
     <col min="2" max="2" width="23.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1159,7 +2209,7 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1168,394 +2218,394 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92294D74-432A-4C96-904C-9BCF9E1EE3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080503B-0210-4DE5-A558-10787162315B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -292,7 +292,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -595,37 +595,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
@@ -648,48 +617,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -962,10 +889,21 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -991,6 +929,37 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,29 +975,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="13" dataDxfId="25" totalsRowDxfId="12" headerRowBorderDxfId="23" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="Package Version" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="Package Version" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
-  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="Process Name" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
+  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="7"/>
@@ -3577,7 +3545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3586,1836 +3554,1632 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="9"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="9"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="9"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="9"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="9"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="9"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="9"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="9"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="9"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="9"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="9"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="9"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="9"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="9"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="9"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="9"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="9"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="9"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="9"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="9"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="9"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="9"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="9"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="9"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="9"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="9"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="9"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="9"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="9"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="9"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="9"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="9"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="9"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="9"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="9"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="9"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="9"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="9"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080503B-0210-4DE5-A558-10787162315B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F2A15-33D8-4EF8-B478-488383EF2348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Current Package Version</t>
+  </si>
+  <si>
+    <t>All Package Versions</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -975,18 +1008,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="Package Version" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,12 +1030,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1011,11 +1045,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1284,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1298,12 +1332,12 @@
     <col min="4" max="4" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1323,16 +1357,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1341,9 +1378,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1352,9 +1390,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1363,9 +1402,10 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1374,9 +1414,10 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1385,9 +1426,10 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1396,9 +1438,10 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1407,9 +1450,10 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1418,9 +1462,10 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1429,9 +1474,10 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1440,9 +1486,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1451,9 +1498,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="9"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1462,9 +1510,10 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="9"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1473,9 +1522,10 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="9"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1484,9 +1534,10 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="9"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1495,9 +1546,10 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="9"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1506,9 +1558,10 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1517,9 +1570,10 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1528,11 +1582,12 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1541,9 +1596,10 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1552,9 +1608,10 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1563,9 +1620,10 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1574,9 +1632,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1585,9 +1644,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1596,9 +1656,10 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1607,9 +1668,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1618,9 +1680,10 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1629,9 +1692,10 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="9"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1640,9 +1704,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="9"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1651,9 +1716,10 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="9"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1662,9 +1728,10 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="9"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1673,9 +1740,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="9"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1684,9 +1752,10 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="9"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1695,9 +1764,10 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="9"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1706,9 +1776,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="9"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1717,9 +1788,10 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="9"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1728,9 +1800,10 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="9"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1739,9 +1812,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="9"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1750,9 +1824,10 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="9"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1761,9 +1836,10 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="9"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1772,9 +1848,10 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="9"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1783,9 +1860,10 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="9"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1794,9 +1872,10 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="9"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1805,9 +1884,10 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="9"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1816,9 +1896,10 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="9"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1827,9 +1908,10 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="9"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1838,9 +1920,10 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="9"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1849,9 +1932,10 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="9"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1860,9 +1944,10 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="9"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1871,9 +1956,10 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="9"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1882,9 +1968,10 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="9"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1893,9 +1980,10 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="9"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1904,9 +1992,10 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="9"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1915,9 +2004,10 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="9"/>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1926,9 +2016,10 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="9"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1937,9 +2028,10 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="9"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1948,9 +2040,10 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="9"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1959,9 +2052,10 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="9"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1970,9 +2064,10 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="9"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1981,9 +2076,10 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="9"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1992,9 +2088,10 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="9"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2003,9 +2100,10 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="9"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2014,9 +2112,10 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="9"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2025,9 +2124,10 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="9"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2036,9 +2136,10 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="9"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2047,9 +2148,10 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="9"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2058,9 +2160,10 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="9"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2069,9 +2172,10 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="9"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2080,9 +2184,10 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="9"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2091,9 +2196,10 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="9"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2102,9 +2208,10 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="9"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -2113,9 +2220,10 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="9"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -2124,9 +2232,10 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="9"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -2135,9 +2244,10 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="9"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -2146,9 +2256,10 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="9"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -2157,9 +2268,10 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="9"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -2168,9 +2280,10 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="9"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -2179,9 +2292,10 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="9"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2190,9 +2304,10 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="9"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -2201,9 +2316,10 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="9"/>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -2212,9 +2328,10 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="9"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2223,9 +2340,10 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="9"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -2234,9 +2352,10 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="9"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -2245,9 +2364,10 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="9"/>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -2256,9 +2376,10 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="9"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -2267,9 +2388,10 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="9"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -2278,9 +2400,10 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="9"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2289,9 +2412,10 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="9"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -2300,9 +2424,10 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="9"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -2311,9 +2436,10 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="9"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -2322,9 +2448,10 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="9"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -2333,9 +2460,10 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="9"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -2344,9 +2472,10 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="9"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -2355,9 +2484,10 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="9"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -2366,9 +2496,10 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="9"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -2377,9 +2508,10 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="9"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -2388,9 +2520,10 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="9"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -2399,9 +2532,10 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="9"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -2410,9 +2544,10 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="9"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -2421,9 +2556,10 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="9"/>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -2432,9 +2568,10 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="9"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -2443,9 +2580,10 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="9"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -2454,9 +2592,10 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I103" s="9"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -2465,9 +2604,10 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="9"/>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -2476,9 +2616,10 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="9"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -2487,9 +2628,10 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="9"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -2498,9 +2640,10 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="9"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -2509,9 +2652,10 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I108" s="9"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -2520,9 +2664,10 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I109" s="9"/>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -2531,9 +2676,10 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I110" s="9"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -2542,9 +2688,10 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I111" s="9"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -2553,9 +2700,10 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I112" s="9"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -2564,9 +2712,10 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I113" s="9"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -2575,9 +2724,10 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I114" s="9"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -2586,9 +2736,10 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I115" s="9"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -2597,9 +2748,10 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I116" s="9"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2608,9 +2760,10 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I117" s="9"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -2619,9 +2772,10 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I118" s="9"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -2630,9 +2784,10 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I119" s="9"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -2641,9 +2796,10 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I120" s="9"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -2652,9 +2808,10 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I121" s="9"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -2663,9 +2820,10 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I122" s="9"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -2674,9 +2832,10 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I123" s="9"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -2685,9 +2844,10 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I124" s="9"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -2696,9 +2856,10 @@
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I125" s="9"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -2707,9 +2868,10 @@
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I126" s="9"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -2718,9 +2880,10 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I127" s="9"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -2729,9 +2892,10 @@
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I128" s="9"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -2740,9 +2904,10 @@
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I129" s="9"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -2751,9 +2916,10 @@
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I130" s="9"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -2762,9 +2928,10 @@
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I131" s="9"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -2773,9 +2940,10 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I132" s="9"/>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -2784,9 +2952,10 @@
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I133" s="9"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -2795,9 +2964,10 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I134" s="9"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -2806,9 +2976,10 @@
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I135" s="9"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -2817,9 +2988,10 @@
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I136" s="9"/>
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -2828,9 +3000,10 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I137" s="9"/>
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -2839,9 +3012,10 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I138" s="9"/>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -2850,9 +3024,10 @@
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I139" s="9"/>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -2861,9 +3036,10 @@
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I140" s="9"/>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -2872,9 +3048,10 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I141" s="9"/>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -2883,9 +3060,10 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I142" s="9"/>
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -2894,9 +3072,10 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I143" s="9"/>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -2905,9 +3084,10 @@
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I144" s="9"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -2916,9 +3096,10 @@
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I145" s="9"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -2927,9 +3108,10 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I146" s="9"/>
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -2938,9 +3120,10 @@
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I147" s="9"/>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -2949,9 +3132,10 @@
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I148" s="9"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -2960,9 +3144,10 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I149" s="9"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -2971,9 +3156,10 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I150" s="9"/>
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -2982,9 +3168,10 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I151" s="9"/>
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -2993,9 +3180,10 @@
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I152" s="9"/>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -3004,9 +3192,10 @@
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I153" s="9"/>
+      <c r="J153" s="7"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -3015,9 +3204,10 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I154" s="9"/>
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -3026,9 +3216,10 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I155" s="9"/>
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -3037,9 +3228,10 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I156" s="9"/>
+      <c r="J156" s="7"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -3048,9 +3240,10 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I157" s="9"/>
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -3059,9 +3252,10 @@
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I158" s="9"/>
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -3070,9 +3264,10 @@
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I159" s="9"/>
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -3081,9 +3276,10 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I160" s="9"/>
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -3092,9 +3288,10 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I161" s="9"/>
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -3103,9 +3300,10 @@
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I162" s="9"/>
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -3114,9 +3312,10 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I163" s="9"/>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -3125,9 +3324,10 @@
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I164" s="9"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -3136,9 +3336,10 @@
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I165" s="9"/>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -3147,9 +3348,10 @@
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I166" s="9"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -3158,9 +3360,10 @@
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I167" s="9"/>
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -3169,9 +3372,10 @@
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I168" s="9"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -3180,9 +3384,10 @@
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I169" s="9"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -3191,9 +3396,10 @@
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I170" s="9"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -3202,9 +3408,10 @@
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I171" s="9"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -3213,9 +3420,10 @@
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I172" s="9"/>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -3224,9 +3432,10 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I173" s="9"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -3235,9 +3444,10 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I174" s="9"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -3246,9 +3456,10 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I175" s="9"/>
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -3257,9 +3468,10 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I176" s="9"/>
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -3268,9 +3480,10 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I177" s="9"/>
+      <c r="J177" s="7"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -3279,9 +3492,10 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I178" s="9"/>
+      <c r="J178" s="7"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -3290,9 +3504,10 @@
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I179" s="9"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -3301,9 +3516,10 @@
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I180" s="9"/>
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -3312,9 +3528,10 @@
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I181" s="9"/>
+      <c r="J181" s="7"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3323,9 +3540,10 @@
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I182" s="9"/>
+      <c r="J182" s="7"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -3334,9 +3552,10 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I183" s="9"/>
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -3345,9 +3564,10 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I184" s="9"/>
+      <c r="J184" s="7"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -3356,9 +3576,10 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I185" s="9"/>
+      <c r="J185" s="7"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -3367,9 +3588,10 @@
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I186" s="9"/>
+      <c r="J186" s="7"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -3378,9 +3600,10 @@
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I187" s="9"/>
+      <c r="J187" s="7"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -3389,9 +3612,10 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
-      <c r="I188" s="7"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I188" s="9"/>
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -3400,9 +3624,10 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
-      <c r="I189" s="7"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I189" s="9"/>
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -3411,9 +3636,10 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I190" s="9"/>
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -3422,9 +3648,10 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I191" s="9"/>
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -3433,9 +3660,10 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I192" s="9"/>
+      <c r="J192" s="7"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -3444,9 +3672,10 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I193" s="9"/>
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -3455,9 +3684,10 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I194" s="9"/>
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -3466,9 +3696,10 @@
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
-      <c r="I195" s="7"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I195" s="9"/>
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -3477,9 +3708,10 @@
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I196" s="9"/>
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -3488,9 +3720,10 @@
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
-      <c r="I197" s="7"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I197" s="9"/>
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -3499,9 +3732,10 @@
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
-      <c r="I198" s="7"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I198" s="9"/>
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -3510,9 +3744,10 @@
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
-      <c r="I199" s="7"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I199" s="9"/>
+      <c r="J199" s="7"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -3521,9 +3756,10 @@
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I200" s="9"/>
+      <c r="J200" s="7"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -3532,7 +3768,8 @@
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
-      <c r="I201" s="12"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F2A15-33D8-4EF8-B478-488383EF2348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861667E-26E9-4635-B8DB-8B68CA4E353A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
+    <sheet name="Update to Latest Package" sheetId="5" r:id="rId4"/>
+    <sheet name="Rollback to Previous Package" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -298,7 +300,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -321,8 +323,167 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -759,6 +920,33 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
         <vertical style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </vertical>
@@ -1008,19 +1196,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Organization Unit ID" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Organization Unit Name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,12 +1218,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Organization Unit Name" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,11 +1233,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Organization Unit ID" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Organization Unit Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6D5E497-F7AF-4CA2-8AEA-598B0549C51B}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
+  <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Organization Unit Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7FCDC37A-F154-4F55-8BD2-2B8B7EE86B58}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
+  <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Organization Unit Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6869,4 +7081,2074 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73634577-E9D2-4B29-8F7D-B913107740E0}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="14"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="14"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="14"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="14"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="14"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="14"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="14"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="14"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="14"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="14"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="14"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="14"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="9"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="14"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="9"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="14"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="9"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="14"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="9"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="14"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="14"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="9"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="14"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="14"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="14"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="9"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="14"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="9"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="14"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="9"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="14"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="9"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="9"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="14"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7FA3EC-4452-46FF-9F0C-48E83E60D5C6}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="9"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="9"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="9"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="14"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="14"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="14"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="9"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="14"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="14"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="9"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="14"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="14"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="14"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="9"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="14"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="14"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="9"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="9"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="9"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="9"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="9"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="9"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="14"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="9"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="14"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="9"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="14"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="9"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="14"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="9"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="14"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="9"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="14"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="14"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="9"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="14"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="14"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="14"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="9"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="14"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="9"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="14"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="9"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="14"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="9"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="9"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="14"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861667E-26E9-4635-B8DB-8B68CA4E353A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA31E57-B2BF-416A-95C7-8A811173F756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,6 +1547,7 @@
     <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3984,6 +3985,17 @@
       <c r="J201" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{F4AA81C8-4CCE-4408-94CF-88F19C1BC6D4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{D398AB16-7457-4B85-8C85-49A1951758BE}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Environment ID" error="Environmet ID must be an integer greater than 0." sqref="I2:I1048576" xr:uid="{E0B12264-1E3C-464D-AD09-5E7948491C97}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -5632,6 +5644,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{12BB3E27-FA95-42C2-9A08-6E29D130DDED}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7075,6 +7092,14 @@
       <c r="E201" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Organization Unit ID" error="Organization Unit ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{40862419-A79F-4897-9E73-CD59F9E7FF76}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{47EA9FF2-6783-4838-8CD0-AE0B7534C572}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43DD4BB-60D9-4DDF-9753-AC27A266FC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35818FB-EF74-4087-B3D0-1DD398DBF684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -315,7 +315,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -469,24 +494,22 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
+        <left/>
         <right style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
@@ -519,23 +542,87 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -561,6 +648,68 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -643,205 +792,6 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -940,6 +890,31 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -971,6 +946,31 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -991,6 +991,31 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1110,34 +1135,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="27" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="32" dataDxfId="30" totalsRowDxfId="28" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder ID" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Folder Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder ID" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Folder Name" dataDxfId="26"/>
     <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
-  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Package Version" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
+  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1147,11 +1173,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,9 +1187,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6D5E497-F7AF-4CA2-8AEA-598B0549C51B}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,9 +1199,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7FCDC37A-F154-4F55-8BD2-2B8B7EE86B58}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3920,7 +3946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3931,12 +3957,13 @@
     <col min="1" max="1" width="23.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="17" customWidth="1"/>
     <col min="3" max="3" width="26.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.36328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3949,1617 +3976,1820 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="15"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="15"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="15"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="15"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="15"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="15"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="15"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="15"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="15"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" s="15"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D25" s="15"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D26" s="15"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D29" s="15"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30" s="15"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31" s="15"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D33" s="15"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D35" s="15"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D36" s="15"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D37" s="15"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D39" s="15"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D40" s="15"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D41" s="15"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" s="15"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D43" s="15"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D44" s="15"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D45" s="15"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D46" s="15"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D47" s="15"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D48" s="15"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D49" s="15"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D50" s="15"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D51" s="15"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D52" s="15"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D53" s="15"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="15"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D55" s="15"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D56" s="15"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D57" s="15"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D58" s="15"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D59" s="15"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D60" s="15"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D61" s="15"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D62" s="15"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D63" s="15"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D64" s="15"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D65" s="15"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D66" s="15"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D67" s="15"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D68" s="15"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D69" s="15"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D70" s="15"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D71" s="15"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D72" s="15"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D73" s="15"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D74" s="15"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D75" s="15"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D76" s="15"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D77" s="15"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D78" s="15"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D79" s="15"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D80" s="15"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D81" s="15"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D82" s="15"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D83" s="15"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D84" s="15"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D85" s="15"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D86" s="15"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D87" s="15"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D88" s="15"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D89" s="15"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D90" s="15"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D91" s="15"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D92" s="15"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D93" s="15"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D94" s="15"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D95" s="15"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D96" s="15"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D97" s="15"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D98" s="15"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D99" s="15"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D100" s="15"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D101" s="15"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D102" s="15"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D103" s="15"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D104" s="15"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D105" s="15"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D106" s="15"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D107" s="15"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D108" s="15"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D109" s="15"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D110" s="15"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D111" s="15"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D112" s="15"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D113" s="15"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D114" s="15"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D115" s="15"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D116" s="15"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D117" s="15"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D118" s="15"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D119" s="15"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D120" s="15"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D121" s="15"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D122" s="15"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D123" s="15"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D124" s="15"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D125" s="15"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D126" s="15"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D127" s="15"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D128" s="15"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D129" s="15"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D130" s="15"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D131" s="15"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D132" s="15"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="6"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D133" s="15"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D134" s="15"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="6"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D135" s="15"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D136" s="15"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D137" s="15"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D138" s="15"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="6"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D139" s="15"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="6"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D140" s="15"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="6"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D141" s="15"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D142" s="15"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="6"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D143" s="15"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D144" s="15"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D145" s="15"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D146" s="15"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D147" s="15"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="6"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D148" s="15"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="6"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D149" s="15"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="6"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D150" s="15"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="6"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D151" s="15"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="6"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D152" s="15"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="6"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D153" s="15"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="6"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D154" s="15"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="6"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D155" s="15"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="6"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D156" s="15"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="6"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D157" s="15"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D158" s="15"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D159" s="15"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D160" s="15"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="6"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D161" s="15"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="6"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D162" s="15"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="6"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D163" s="15"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="6"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D164" s="15"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D165" s="15"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D166" s="15"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="6"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D167" s="15"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="6"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D168" s="15"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="6"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D169" s="15"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="6"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D170" s="15"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="6"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D171" s="15"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="6"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D172" s="15"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="6"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D173" s="15"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="6"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D174" s="15"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="6"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D175" s="15"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="6"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="6"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D176" s="15"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="6"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="6"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D177" s="15"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="6"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="6"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D178" s="15"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="6"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D179" s="15"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="6"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D180" s="15"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="6"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D181" s="15"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="6"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D182" s="15"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="6"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D183" s="15"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="6"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D184" s="15"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="6"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D185" s="15"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="6"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D186" s="15"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="6"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D187" s="15"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="6"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D188" s="15"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="6"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D189" s="15"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="6"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D190" s="15"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="6"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D191" s="15"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="6"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D192" s="15"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="6"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D193" s="15"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="6"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D194" s="15"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="6"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D195" s="15"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="6"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D196" s="15"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="6"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D197" s="15"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="6"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D198" s="15"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="6"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D199" s="15"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="6"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D200" s="15"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="6"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{12BB3E27-FA95-42C2-9A08-6E29D130DDED}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="E202:E1048576 F2:F201" xr:uid="{12BB3E27-FA95-42C2-9A08-6E29D130DDED}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35818FB-EF74-4087-B3D0-1DD398DBF684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8171DEE-FC56-42F5-98A0-608E8FC3B27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -311,6 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,25 +322,25 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
         <top style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </top>
         <bottom style="thin">
-          <color theme="5"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -714,6 +717,31 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -792,37 +820,6 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1145,9 +1142,9 @@
     <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1157,10 +1154,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="14"/>
     <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="12"/>
@@ -1485,7 +1482,7 @@
     <col min="5" max="5" width="36.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.6328125" style="17" customWidth="1"/>
     <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.08984375" style="20" customWidth="1"/>
   </cols>
@@ -1512,7 +1509,7 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1638,7 +1635,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="8"/>
       <c r="J11" s="18"/>
     </row>
@@ -1650,7 +1647,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="8"/>
       <c r="J12" s="18"/>
     </row>
@@ -1662,7 +1659,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="8"/>
       <c r="J13" s="18"/>
     </row>
@@ -1674,7 +1671,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="8"/>
       <c r="J14" s="18"/>
     </row>
@@ -1686,7 +1683,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="8"/>
       <c r="J15" s="18"/>
     </row>
@@ -1698,7 +1695,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="8"/>
       <c r="J16" s="18"/>
     </row>
@@ -1710,7 +1707,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="6"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="18"/>
     </row>
@@ -1722,7 +1719,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="8"/>
       <c r="J18" s="18"/>
     </row>
@@ -1734,7 +1731,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="8"/>
       <c r="J19" s="18" t="s">
         <v>0</v>
@@ -1748,7 +1745,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="8"/>
       <c r="J20" s="18"/>
     </row>
@@ -1760,7 +1757,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="18"/>
     </row>
@@ -1772,7 +1769,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="6"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="18"/>
     </row>
@@ -1784,7 +1781,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="8"/>
       <c r="J23" s="18"/>
     </row>
@@ -1796,7 +1793,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="8"/>
       <c r="J24" s="18"/>
     </row>
@@ -1808,7 +1805,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="6"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="8"/>
       <c r="J25" s="18"/>
     </row>
@@ -1820,7 +1817,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="8"/>
       <c r="J26" s="18"/>
     </row>
@@ -1832,7 +1829,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="6"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="8"/>
       <c r="J27" s="18"/>
     </row>
@@ -1844,7 +1841,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="18"/>
     </row>
@@ -1856,7 +1853,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="8"/>
       <c r="J29" s="18"/>
     </row>
@@ -1868,7 +1865,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="8"/>
       <c r="J30" s="18"/>
     </row>
@@ -1880,7 +1877,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="8"/>
       <c r="J31" s="18"/>
     </row>
@@ -1892,7 +1889,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="6"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="8"/>
       <c r="J32" s="18"/>
     </row>
@@ -1904,7 +1901,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="8"/>
       <c r="J33" s="18"/>
     </row>
@@ -1916,7 +1913,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="6"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="8"/>
       <c r="J34" s="18"/>
     </row>
@@ -1928,7 +1925,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="6"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="8"/>
       <c r="J35" s="18"/>
     </row>
@@ -1940,7 +1937,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="8"/>
       <c r="J36" s="18"/>
     </row>
@@ -1952,7 +1949,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="6"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="8"/>
       <c r="J37" s="18"/>
     </row>
@@ -1964,7 +1961,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="8"/>
       <c r="J38" s="18"/>
     </row>
@@ -1976,7 +1973,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="6"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="8"/>
       <c r="J39" s="18"/>
     </row>
@@ -1988,7 +1985,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="6"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="8"/>
       <c r="J40" s="18"/>
     </row>
@@ -2000,7 +1997,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="6"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="8"/>
       <c r="J41" s="18"/>
     </row>
@@ -2012,7 +2009,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="6"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="8"/>
       <c r="J42" s="18"/>
     </row>
@@ -2024,7 +2021,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="6"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="8"/>
       <c r="J43" s="18"/>
     </row>
@@ -2036,7 +2033,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="6"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="8"/>
       <c r="J44" s="18"/>
     </row>
@@ -2048,7 +2045,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="6"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="8"/>
       <c r="J45" s="18"/>
     </row>
@@ -2060,7 +2057,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="6"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="8"/>
       <c r="J46" s="18"/>
     </row>
@@ -2072,7 +2069,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="6"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="8"/>
       <c r="J47" s="18"/>
     </row>
@@ -2084,7 +2081,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="6"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="8"/>
       <c r="J48" s="18"/>
     </row>
@@ -2096,7 +2093,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="6"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="8"/>
       <c r="J49" s="18"/>
     </row>
@@ -2108,7 +2105,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="8"/>
       <c r="J50" s="18"/>
     </row>
@@ -2120,7 +2117,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="8"/>
       <c r="J51" s="18"/>
     </row>
@@ -2132,7 +2129,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="8"/>
       <c r="J52" s="18"/>
     </row>
@@ -2144,7 +2141,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="8"/>
       <c r="J53" s="18"/>
     </row>
@@ -2156,7 +2153,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="8"/>
       <c r="J54" s="18"/>
     </row>
@@ -2168,7 +2165,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="8"/>
       <c r="J55" s="18"/>
     </row>
@@ -2180,7 +2177,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="6"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="8"/>
       <c r="J56" s="18"/>
     </row>
@@ -2192,7 +2189,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="6"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="8"/>
       <c r="J57" s="18"/>
     </row>
@@ -2204,7 +2201,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="6"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="8"/>
       <c r="J58" s="18"/>
     </row>
@@ -2216,7 +2213,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="6"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="8"/>
       <c r="J59" s="18"/>
     </row>
@@ -2228,7 +2225,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="6"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="8"/>
       <c r="J60" s="18"/>
     </row>
@@ -2240,7 +2237,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="6"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="8"/>
       <c r="J61" s="18"/>
     </row>
@@ -2252,7 +2249,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="6"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="8"/>
       <c r="J62" s="18"/>
     </row>
@@ -2264,7 +2261,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="6"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="8"/>
       <c r="J63" s="18"/>
     </row>
@@ -2276,7 +2273,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="8"/>
       <c r="J64" s="18"/>
     </row>
@@ -2288,7 +2285,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="8"/>
       <c r="J65" s="18"/>
     </row>
@@ -2300,7 +2297,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="6"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="8"/>
       <c r="J66" s="18"/>
     </row>
@@ -2312,7 +2309,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="6"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="8"/>
       <c r="J67" s="18"/>
     </row>
@@ -2324,7 +2321,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="6"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="8"/>
       <c r="J68" s="18"/>
     </row>
@@ -2336,7 +2333,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="6"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="8"/>
       <c r="J69" s="18"/>
     </row>
@@ -2348,7 +2345,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="6"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="6"/>
       <c r="I70" s="8"/>
       <c r="J70" s="18"/>
     </row>
@@ -2360,7 +2357,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="6"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="8"/>
       <c r="J71" s="18"/>
     </row>
@@ -2372,7 +2369,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="6"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="6"/>
       <c r="I72" s="8"/>
       <c r="J72" s="18"/>
     </row>
@@ -2384,7 +2381,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="8"/>
       <c r="J73" s="18"/>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="6"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="6"/>
       <c r="I74" s="8"/>
       <c r="J74" s="18"/>
     </row>
@@ -2408,7 +2405,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="6"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="8"/>
       <c r="J75" s="18"/>
     </row>
@@ -2420,7 +2417,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="6"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="8"/>
       <c r="J76" s="18"/>
     </row>
@@ -2432,7 +2429,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="6"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="8"/>
       <c r="J77" s="18"/>
     </row>
@@ -2444,7 +2441,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="6"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="8"/>
       <c r="J78" s="18"/>
     </row>
@@ -2456,7 +2453,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="6"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="8"/>
       <c r="J79" s="18"/>
     </row>
@@ -2468,7 +2465,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="6"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="8"/>
       <c r="J80" s="18"/>
     </row>
@@ -2480,7 +2477,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="6"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="8"/>
       <c r="J81" s="18"/>
     </row>
@@ -2492,7 +2489,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="6"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="8"/>
       <c r="J82" s="18"/>
     </row>
@@ -2504,7 +2501,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="6"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="8"/>
       <c r="J83" s="18"/>
     </row>
@@ -2516,7 +2513,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="6"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="8"/>
       <c r="J84" s="18"/>
     </row>
@@ -2528,7 +2525,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="6"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="8"/>
       <c r="J85" s="18"/>
     </row>
@@ -2540,7 +2537,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="8"/>
       <c r="J86" s="18"/>
     </row>
@@ -2552,7 +2549,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="6"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="8"/>
       <c r="J87" s="18"/>
     </row>
@@ -2564,7 +2561,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="6"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="8"/>
       <c r="J88" s="18"/>
     </row>
@@ -2576,7 +2573,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="6"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="8"/>
       <c r="J89" s="18"/>
     </row>
@@ -2588,7 +2585,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="6"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="8"/>
       <c r="J90" s="18"/>
     </row>
@@ -2600,7 +2597,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="6"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="8"/>
       <c r="J91" s="18"/>
     </row>
@@ -2612,7 +2609,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="6"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="8"/>
       <c r="J92" s="18"/>
     </row>
@@ -2624,7 +2621,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="6"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="8"/>
       <c r="J93" s="18"/>
     </row>
@@ -2636,7 +2633,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="6"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="8"/>
       <c r="J94" s="18"/>
     </row>
@@ -2648,7 +2645,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="6"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="8"/>
       <c r="J95" s="18"/>
     </row>
@@ -2660,7 +2657,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="6"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
+      <c r="H96" s="6"/>
       <c r="I96" s="8"/>
       <c r="J96" s="18"/>
     </row>
@@ -2672,7 +2669,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="6"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="8"/>
       <c r="J97" s="18"/>
     </row>
@@ -2684,7 +2681,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="6"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="8"/>
       <c r="J98" s="18"/>
     </row>
@@ -2696,7 +2693,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="6"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="8"/>
       <c r="J99" s="18"/>
     </row>
@@ -2708,7 +2705,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="6"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="8"/>
       <c r="J100" s="18"/>
     </row>
@@ -2720,7 +2717,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="6"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="8"/>
       <c r="J101" s="18"/>
     </row>
@@ -2732,7 +2729,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="8"/>
       <c r="J102" s="18"/>
     </row>
@@ -2744,7 +2741,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="8"/>
       <c r="J103" s="18"/>
     </row>
@@ -2756,7 +2753,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="6"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="8"/>
       <c r="J104" s="18"/>
     </row>
@@ -2768,7 +2765,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="6"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="8"/>
       <c r="J105" s="18"/>
     </row>
@@ -2780,7 +2777,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="6"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="8"/>
       <c r="J106" s="18"/>
     </row>
@@ -2792,7 +2789,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="6"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="8"/>
       <c r="J107" s="18"/>
     </row>
@@ -2804,7 +2801,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="6"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="8"/>
       <c r="J108" s="18"/>
     </row>
@@ -2816,7 +2813,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="6"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="8"/>
       <c r="J109" s="18"/>
     </row>
@@ -2828,7 +2825,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="6"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="8"/>
       <c r="J110" s="18"/>
     </row>
@@ -2840,7 +2837,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="6"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="8"/>
       <c r="J111" s="18"/>
     </row>
@@ -2852,7 +2849,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="6"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="8"/>
       <c r="J112" s="18"/>
     </row>
@@ -2864,7 +2861,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="6"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="8"/>
       <c r="J113" s="18"/>
     </row>
@@ -2876,7 +2873,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="6"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="8"/>
       <c r="J114" s="18"/>
     </row>
@@ -2888,7 +2885,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="8"/>
       <c r="J115" s="18"/>
     </row>
@@ -2900,7 +2897,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="8"/>
       <c r="J116" s="18"/>
     </row>
@@ -2912,7 +2909,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="8"/>
       <c r="J117" s="18"/>
     </row>
@@ -2924,7 +2921,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="6"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="8"/>
       <c r="J118" s="18"/>
     </row>
@@ -2936,7 +2933,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="6"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="8"/>
       <c r="J119" s="18"/>
     </row>
@@ -2948,7 +2945,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="6"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="8"/>
       <c r="J120" s="18"/>
     </row>
@@ -2960,7 +2957,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="6"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="8"/>
       <c r="J121" s="18"/>
     </row>
@@ -2972,7 +2969,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="6"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="8"/>
       <c r="J122" s="18"/>
     </row>
@@ -2984,7 +2981,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="8"/>
       <c r="J123" s="18"/>
     </row>
@@ -2996,7 +2993,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="6"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="6"/>
       <c r="I124" s="8"/>
       <c r="J124" s="18"/>
     </row>
@@ -3008,7 +3005,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="8"/>
       <c r="J125" s="18"/>
     </row>
@@ -3020,7 +3017,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="8"/>
       <c r="J126" s="18"/>
     </row>
@@ -3032,7 +3029,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="6"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="8"/>
       <c r="J127" s="18"/>
     </row>
@@ -3044,7 +3041,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="6"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="8"/>
       <c r="J128" s="18"/>
     </row>
@@ -3056,7 +3053,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="8"/>
       <c r="J129" s="18"/>
     </row>
@@ -3068,7 +3065,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="6"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="8"/>
       <c r="J130" s="18"/>
     </row>
@@ -3080,7 +3077,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="6"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="8"/>
       <c r="J131" s="18"/>
     </row>
@@ -3092,7 +3089,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="6"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
+      <c r="H132" s="6"/>
       <c r="I132" s="8"/>
       <c r="J132" s="18"/>
     </row>
@@ -3104,7 +3101,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="6"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="8"/>
       <c r="J133" s="18"/>
     </row>
@@ -3116,7 +3113,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="6"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="8"/>
       <c r="J134" s="18"/>
     </row>
@@ -3128,7 +3125,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="6"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="8"/>
       <c r="J135" s="18"/>
     </row>
@@ -3140,7 +3137,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="6"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="8"/>
       <c r="J136" s="18"/>
     </row>
@@ -3152,7 +3149,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="6"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="8"/>
       <c r="J137" s="18"/>
     </row>
@@ -3164,7 +3161,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="6"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="8"/>
       <c r="J138" s="18"/>
     </row>
@@ -3176,7 +3173,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="6"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="8"/>
       <c r="J139" s="18"/>
     </row>
@@ -3188,7 +3185,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="6"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="8"/>
       <c r="J140" s="18"/>
     </row>
@@ -3200,7 +3197,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="6"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="8"/>
       <c r="J141" s="18"/>
     </row>
@@ -3212,7 +3209,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="6"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="8"/>
       <c r="J142" s="18"/>
     </row>
@@ -3224,7 +3221,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="6"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="8"/>
       <c r="J143" s="18"/>
     </row>
@@ -3236,7 +3233,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="6"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+      <c r="H144" s="6"/>
       <c r="I144" s="8"/>
       <c r="J144" s="18"/>
     </row>
@@ -3248,7 +3245,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="6"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="8"/>
       <c r="J145" s="18"/>
     </row>
@@ -3260,7 +3257,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="6"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="H146" s="6"/>
       <c r="I146" s="8"/>
       <c r="J146" s="18"/>
     </row>
@@ -3272,7 +3269,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="6"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="8"/>
       <c r="J147" s="18"/>
     </row>
@@ -3284,7 +3281,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="6"/>
       <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="6"/>
       <c r="I148" s="8"/>
       <c r="J148" s="18"/>
     </row>
@@ -3296,7 +3293,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="6"/>
       <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="8"/>
       <c r="J149" s="18"/>
     </row>
@@ -3308,7 +3305,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="6"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="6"/>
       <c r="I150" s="8"/>
       <c r="J150" s="18"/>
     </row>
@@ -3320,7 +3317,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="6"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
+      <c r="H151" s="6"/>
       <c r="I151" s="8"/>
       <c r="J151" s="18"/>
     </row>
@@ -3332,7 +3329,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="6"/>
       <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
+      <c r="H152" s="6"/>
       <c r="I152" s="8"/>
       <c r="J152" s="18"/>
     </row>
@@ -3344,7 +3341,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="6"/>
       <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="8"/>
       <c r="J153" s="18"/>
     </row>
@@ -3356,7 +3353,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="6"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
+      <c r="H154" s="6"/>
       <c r="I154" s="8"/>
       <c r="J154" s="18"/>
     </row>
@@ -3368,7 +3365,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="6"/>
       <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="8"/>
       <c r="J155" s="18"/>
     </row>
@@ -3380,7 +3377,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="6"/>
       <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
+      <c r="H156" s="6"/>
       <c r="I156" s="8"/>
       <c r="J156" s="18"/>
     </row>
@@ -3392,7 +3389,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="6"/>
       <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="8"/>
       <c r="J157" s="18"/>
     </row>
@@ -3404,7 +3401,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="6"/>
       <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+      <c r="H158" s="6"/>
       <c r="I158" s="8"/>
       <c r="J158" s="18"/>
     </row>
@@ -3416,7 +3413,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="6"/>
       <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="8"/>
       <c r="J159" s="18"/>
     </row>
@@ -3428,7 +3425,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="6"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="H160" s="6"/>
       <c r="I160" s="8"/>
       <c r="J160" s="18"/>
     </row>
@@ -3440,7 +3437,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="6"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="8"/>
       <c r="J161" s="18"/>
     </row>
@@ -3452,7 +3449,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="6"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="6"/>
       <c r="I162" s="8"/>
       <c r="J162" s="18"/>
     </row>
@@ -3464,7 +3461,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="6"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="8"/>
       <c r="J163" s="18"/>
     </row>
@@ -3476,7 +3473,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="6"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
+      <c r="H164" s="6"/>
       <c r="I164" s="8"/>
       <c r="J164" s="18"/>
     </row>
@@ -3488,7 +3485,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="6"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="H165" s="6"/>
       <c r="I165" s="8"/>
       <c r="J165" s="18"/>
     </row>
@@ -3500,7 +3497,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="6"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="H166" s="6"/>
       <c r="I166" s="8"/>
       <c r="J166" s="18"/>
     </row>
@@ -3512,7 +3509,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="6"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="8"/>
       <c r="J167" s="18"/>
     </row>
@@ -3524,7 +3521,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="6"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
+      <c r="H168" s="6"/>
       <c r="I168" s="8"/>
       <c r="J168" s="18"/>
     </row>
@@ -3536,7 +3533,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="6"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="H169" s="6"/>
       <c r="I169" s="8"/>
       <c r="J169" s="18"/>
     </row>
@@ -3548,7 +3545,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="6"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
+      <c r="H170" s="6"/>
       <c r="I170" s="8"/>
       <c r="J170" s="18"/>
     </row>
@@ -3560,7 +3557,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="6"/>
       <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="6"/>
       <c r="I171" s="8"/>
       <c r="J171" s="18"/>
     </row>
@@ -3572,7 +3569,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="6"/>
       <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
+      <c r="H172" s="6"/>
       <c r="I172" s="8"/>
       <c r="J172" s="18"/>
     </row>
@@ -3584,7 +3581,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="6"/>
       <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
+      <c r="H173" s="6"/>
       <c r="I173" s="8"/>
       <c r="J173" s="18"/>
     </row>
@@ -3596,7 +3593,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="6"/>
       <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
+      <c r="H174" s="6"/>
       <c r="I174" s="8"/>
       <c r="J174" s="18"/>
     </row>
@@ -3608,7 +3605,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="6"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="6"/>
       <c r="I175" s="8"/>
       <c r="J175" s="18"/>
     </row>
@@ -3620,7 +3617,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="6"/>
       <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="H176" s="6"/>
       <c r="I176" s="8"/>
       <c r="J176" s="18"/>
     </row>
@@ -3632,7 +3629,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="6"/>
       <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="H177" s="6"/>
       <c r="I177" s="8"/>
       <c r="J177" s="18"/>
     </row>
@@ -3644,7 +3641,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="6"/>
       <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="H178" s="6"/>
       <c r="I178" s="8"/>
       <c r="J178" s="18"/>
     </row>
@@ -3656,7 +3653,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="6"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="8"/>
       <c r="J179" s="18"/>
     </row>
@@ -3668,7 +3665,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="6"/>
       <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
+      <c r="H180" s="6"/>
       <c r="I180" s="8"/>
       <c r="J180" s="18"/>
     </row>
@@ -3680,7 +3677,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="6"/>
       <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="6"/>
       <c r="I181" s="8"/>
       <c r="J181" s="18"/>
     </row>
@@ -3692,7 +3689,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="6"/>
       <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
+      <c r="H182" s="6"/>
       <c r="I182" s="8"/>
       <c r="J182" s="18"/>
     </row>
@@ -3704,7 +3701,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="6"/>
       <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="8"/>
       <c r="J183" s="18"/>
     </row>
@@ -3716,7 +3713,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="6"/>
       <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
+      <c r="H184" s="6"/>
       <c r="I184" s="8"/>
       <c r="J184" s="18"/>
     </row>
@@ -3728,7 +3725,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="6"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
+      <c r="H185" s="6"/>
       <c r="I185" s="8"/>
       <c r="J185" s="18"/>
     </row>
@@ -3740,7 +3737,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="6"/>
       <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
+      <c r="H186" s="6"/>
       <c r="I186" s="8"/>
       <c r="J186" s="18"/>
     </row>
@@ -3752,7 +3749,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="6"/>
       <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="6"/>
       <c r="I187" s="8"/>
       <c r="J187" s="18"/>
     </row>
@@ -3764,7 +3761,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="6"/>
       <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
+      <c r="H188" s="6"/>
       <c r="I188" s="8"/>
       <c r="J188" s="18"/>
     </row>
@@ -3776,7 +3773,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="6"/>
       <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
+      <c r="H189" s="6"/>
       <c r="I189" s="8"/>
       <c r="J189" s="18"/>
     </row>
@@ -3788,7 +3785,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="6"/>
       <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="6"/>
       <c r="I190" s="8"/>
       <c r="J190" s="18"/>
     </row>
@@ -3800,7 +3797,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="6"/>
       <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="8"/>
       <c r="J191" s="18"/>
     </row>
@@ -3812,7 +3809,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="6"/>
       <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+      <c r="H192" s="6"/>
       <c r="I192" s="8"/>
       <c r="J192" s="18"/>
     </row>
@@ -3824,7 +3821,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="6"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
+      <c r="H193" s="6"/>
       <c r="I193" s="8"/>
       <c r="J193" s="18"/>
     </row>
@@ -3836,7 +3833,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="6"/>
       <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
+      <c r="H194" s="6"/>
       <c r="I194" s="8"/>
       <c r="J194" s="18"/>
     </row>
@@ -3848,7 +3845,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="6"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
+      <c r="H195" s="6"/>
       <c r="I195" s="8"/>
       <c r="J195" s="18"/>
     </row>
@@ -3860,7 +3857,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="6"/>
       <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
+      <c r="H196" s="6"/>
       <c r="I196" s="8"/>
       <c r="J196" s="18"/>
     </row>
@@ -3872,7 +3869,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="6"/>
       <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="6"/>
       <c r="I197" s="8"/>
       <c r="J197" s="18"/>
     </row>
@@ -3884,7 +3881,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="6"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
+      <c r="H198" s="6"/>
       <c r="I198" s="8"/>
       <c r="J198" s="18"/>
     </row>
@@ -3896,7 +3893,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="6"/>
       <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
+      <c r="H199" s="6"/>
       <c r="I199" s="8"/>
       <c r="J199" s="18"/>
     </row>
@@ -3908,7 +3905,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="6"/>
       <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
+      <c r="H200" s="6"/>
       <c r="I200" s="8"/>
       <c r="J200" s="18"/>
     </row>
@@ -3920,7 +3917,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="16"/>
       <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
+      <c r="H201" s="16"/>
       <c r="I201" s="10"/>
       <c r="J201" s="19"/>
     </row>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8171DEE-FC56-42F5-98A0-608E8FC3B27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8031F9-52E1-4457-9FC2-2011D2581EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -319,31 +319,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -860,6 +835,31 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1142,9 +1142,9 @@
     <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,13 +1154,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1170,11 +1170,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1184,9 +1184,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6D5E497-F7AF-4CA2-8AEA-598B0549C51B}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1196,9 +1196,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7FCDC37A-F154-4F55-8BD2-2B8B7EE86B58}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1475,16 +1475,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -3945,19 +3945,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.453125" customWidth="1"/>
+    <col min="1" max="3" width="25.7265625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="25.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5808,11 +5805,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="43.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -7259,9 +7256,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -8294,9 +8291,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8031F9-52E1-4457-9FC2-2011D2581EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA492F6-4C40-491D-9174-F46BA7FDE322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3945,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA492F6-4C40-491D-9174-F46BA7FDE322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86767C-1162-4FD8-BB95-BC6B8460D38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -1473,21 +1473,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1531,7 +1531,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1543,7 +1543,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1555,7 +1555,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1567,7 +1567,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1579,7 +1579,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1591,7 +1591,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1603,7 +1603,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1615,7 +1615,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1627,7 +1627,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
@@ -1639,7 +1639,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -1651,7 +1651,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -1663,7 +1663,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1675,7 +1675,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -1687,7 +1687,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -1699,7 +1699,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
@@ -1711,7 +1711,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -1723,7 +1723,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1749,7 +1749,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -1761,7 +1761,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1773,7 +1773,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
@@ -1785,7 +1785,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
@@ -1797,7 +1797,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
@@ -1809,7 +1809,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
@@ -1821,7 +1821,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
@@ -1833,7 +1833,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
@@ -1845,7 +1845,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
@@ -1857,7 +1857,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
@@ -1869,7 +1869,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
@@ -1881,7 +1881,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
@@ -1893,7 +1893,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
@@ -1905,7 +1905,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
@@ -1917,7 +1917,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
@@ -1929,7 +1929,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
@@ -1941,7 +1941,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -1953,7 +1953,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
@@ -1965,7 +1965,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
@@ -1977,7 +1977,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
@@ -1989,7 +1989,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
@@ -2001,7 +2001,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
@@ -2013,7 +2013,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
@@ -2025,7 +2025,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
@@ -2037,7 +2037,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
@@ -2049,7 +2049,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
@@ -2061,7 +2061,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
@@ -2073,7 +2073,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
@@ -2085,7 +2085,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
@@ -2097,7 +2097,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
@@ -2109,7 +2109,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
@@ -2121,7 +2121,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
@@ -2133,7 +2133,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
@@ -2145,7 +2145,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
@@ -2157,7 +2157,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
@@ -2169,7 +2169,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
@@ -2181,7 +2181,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
@@ -2193,7 +2193,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
@@ -2205,7 +2205,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
@@ -2217,7 +2217,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
@@ -2229,7 +2229,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
@@ -2241,7 +2241,7 @@
       <c r="I61" s="8"/>
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
@@ -2253,7 +2253,7 @@
       <c r="I62" s="8"/>
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
@@ -2265,7 +2265,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
@@ -2277,7 +2277,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
@@ -2289,7 +2289,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="18"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
@@ -2301,7 +2301,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="18"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
@@ -2313,7 +2313,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="18"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
@@ -2325,7 +2325,7 @@
       <c r="I68" s="8"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
@@ -2337,7 +2337,7 @@
       <c r="I69" s="8"/>
       <c r="J69" s="18"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
@@ -2349,7 +2349,7 @@
       <c r="I70" s="8"/>
       <c r="J70" s="18"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
@@ -2361,7 +2361,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="18"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -2373,7 +2373,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="18"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
@@ -2385,7 +2385,7 @@
       <c r="I73" s="8"/>
       <c r="J73" s="18"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
@@ -2397,7 +2397,7 @@
       <c r="I74" s="8"/>
       <c r="J74" s="18"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
@@ -2409,7 +2409,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="18"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -2421,7 +2421,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="18"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -2433,7 +2433,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="18"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
@@ -2445,7 +2445,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="18"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
@@ -2457,7 +2457,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="18"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
@@ -2469,7 +2469,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="18"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
@@ -2481,7 +2481,7 @@
       <c r="I81" s="8"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
@@ -2493,7 +2493,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="18"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
@@ -2505,7 +2505,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="18"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
@@ -2517,7 +2517,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="18"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2529,7 +2529,7 @@
       <c r="I85" s="8"/>
       <c r="J85" s="18"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
@@ -2541,7 +2541,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="18"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
@@ -2553,7 +2553,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="18"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
@@ -2565,7 +2565,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
@@ -2577,7 +2577,7 @@
       <c r="I89" s="8"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
@@ -2589,7 +2589,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
@@ -2601,7 +2601,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
@@ -2613,7 +2613,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="18"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
@@ -2625,7 +2625,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
@@ -2649,7 +2649,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -2661,7 +2661,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
@@ -2673,7 +2673,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="18"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
@@ -2685,7 +2685,7 @@
       <c r="I98" s="8"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
@@ -2697,7 +2697,7 @@
       <c r="I99" s="8"/>
       <c r="J99" s="18"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
@@ -2709,7 +2709,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="18"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
@@ -2721,7 +2721,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
@@ -2733,7 +2733,7 @@
       <c r="I102" s="8"/>
       <c r="J102" s="18"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
@@ -2745,7 +2745,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="18"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
@@ -2757,7 +2757,7 @@
       <c r="I104" s="8"/>
       <c r="J104" s="18"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
@@ -2769,7 +2769,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="18"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
@@ -2781,7 +2781,7 @@
       <c r="I106" s="8"/>
       <c r="J106" s="18"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
@@ -2793,7 +2793,7 @@
       <c r="I107" s="8"/>
       <c r="J107" s="18"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
@@ -2805,7 +2805,7 @@
       <c r="I108" s="8"/>
       <c r="J108" s="18"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
@@ -2817,7 +2817,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
@@ -2829,7 +2829,7 @@
       <c r="I110" s="8"/>
       <c r="J110" s="18"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
@@ -2841,7 +2841,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="18"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
@@ -2853,7 +2853,7 @@
       <c r="I112" s="8"/>
       <c r="J112" s="18"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
@@ -2865,7 +2865,7 @@
       <c r="I113" s="8"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
@@ -2877,7 +2877,7 @@
       <c r="I114" s="8"/>
       <c r="J114" s="18"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
@@ -2889,7 +2889,7 @@
       <c r="I115" s="8"/>
       <c r="J115" s="18"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
@@ -2901,7 +2901,7 @@
       <c r="I116" s="8"/>
       <c r="J116" s="18"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
@@ -2913,7 +2913,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="18"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
@@ -2925,7 +2925,7 @@
       <c r="I118" s="8"/>
       <c r="J118" s="18"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
@@ -2937,7 +2937,7 @@
       <c r="I119" s="8"/>
       <c r="J119" s="18"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
@@ -2949,7 +2949,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="18"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
@@ -2961,7 +2961,7 @@
       <c r="I121" s="8"/>
       <c r="J121" s="18"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
@@ -2973,7 +2973,7 @@
       <c r="I122" s="8"/>
       <c r="J122" s="18"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
@@ -2985,7 +2985,7 @@
       <c r="I123" s="8"/>
       <c r="J123" s="18"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
@@ -2997,7 +2997,7 @@
       <c r="I124" s="8"/>
       <c r="J124" s="18"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
@@ -3009,7 +3009,7 @@
       <c r="I125" s="8"/>
       <c r="J125" s="18"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
@@ -3021,7 +3021,7 @@
       <c r="I126" s="8"/>
       <c r="J126" s="18"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
@@ -3033,7 +3033,7 @@
       <c r="I127" s="8"/>
       <c r="J127" s="18"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
@@ -3045,7 +3045,7 @@
       <c r="I128" s="8"/>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
@@ -3057,7 +3057,7 @@
       <c r="I129" s="8"/>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
@@ -3069,7 +3069,7 @@
       <c r="I130" s="8"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
@@ -3081,7 +3081,7 @@
       <c r="I131" s="8"/>
       <c r="J131" s="18"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
@@ -3093,7 +3093,7 @@
       <c r="I132" s="8"/>
       <c r="J132" s="18"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
@@ -3105,7 +3105,7 @@
       <c r="I133" s="8"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
@@ -3117,7 +3117,7 @@
       <c r="I134" s="8"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
@@ -3129,7 +3129,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
@@ -3141,7 +3141,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="18"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
@@ -3153,7 +3153,7 @@
       <c r="I137" s="8"/>
       <c r="J137" s="18"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
@@ -3165,7 +3165,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="18"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
@@ -3177,7 +3177,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="18"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
@@ -3189,7 +3189,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="18"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
@@ -3201,7 +3201,7 @@
       <c r="I141" s="8"/>
       <c r="J141" s="18"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
@@ -3213,7 +3213,7 @@
       <c r="I142" s="8"/>
       <c r="J142" s="18"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
@@ -3225,7 +3225,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
@@ -3237,7 +3237,7 @@
       <c r="I144" s="8"/>
       <c r="J144" s="18"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
@@ -3249,7 +3249,7 @@
       <c r="I145" s="8"/>
       <c r="J145" s="18"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
@@ -3261,7 +3261,7 @@
       <c r="I146" s="8"/>
       <c r="J146" s="18"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
@@ -3273,7 +3273,7 @@
       <c r="I147" s="8"/>
       <c r="J147" s="18"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
@@ -3285,7 +3285,7 @@
       <c r="I148" s="8"/>
       <c r="J148" s="18"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
@@ -3297,7 +3297,7 @@
       <c r="I149" s="8"/>
       <c r="J149" s="18"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
@@ -3309,7 +3309,7 @@
       <c r="I150" s="8"/>
       <c r="J150" s="18"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
@@ -3321,7 +3321,7 @@
       <c r="I151" s="8"/>
       <c r="J151" s="18"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
@@ -3333,7 +3333,7 @@
       <c r="I152" s="8"/>
       <c r="J152" s="18"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
@@ -3345,7 +3345,7 @@
       <c r="I153" s="8"/>
       <c r="J153" s="18"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
@@ -3357,7 +3357,7 @@
       <c r="I154" s="8"/>
       <c r="J154" s="18"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
@@ -3369,7 +3369,7 @@
       <c r="I155" s="8"/>
       <c r="J155" s="18"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
@@ -3381,7 +3381,7 @@
       <c r="I156" s="8"/>
       <c r="J156" s="18"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
@@ -3393,7 +3393,7 @@
       <c r="I157" s="8"/>
       <c r="J157" s="18"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
@@ -3405,7 +3405,7 @@
       <c r="I158" s="8"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
@@ -3417,7 +3417,7 @@
       <c r="I159" s="8"/>
       <c r="J159" s="18"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
@@ -3429,7 +3429,7 @@
       <c r="I160" s="8"/>
       <c r="J160" s="18"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
@@ -3441,7 +3441,7 @@
       <c r="I161" s="8"/>
       <c r="J161" s="18"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
@@ -3453,7 +3453,7 @@
       <c r="I162" s="8"/>
       <c r="J162" s="18"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -3465,7 +3465,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
@@ -3477,7 +3477,7 @@
       <c r="I164" s="8"/>
       <c r="J164" s="18"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
@@ -3489,7 +3489,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="18"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
@@ -3501,7 +3501,7 @@
       <c r="I166" s="8"/>
       <c r="J166" s="18"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
@@ -3513,7 +3513,7 @@
       <c r="I167" s="8"/>
       <c r="J167" s="18"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
@@ -3525,7 +3525,7 @@
       <c r="I168" s="8"/>
       <c r="J168" s="18"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
@@ -3537,7 +3537,7 @@
       <c r="I169" s="8"/>
       <c r="J169" s="18"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
@@ -3549,7 +3549,7 @@
       <c r="I170" s="8"/>
       <c r="J170" s="18"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
@@ -3561,7 +3561,7 @@
       <c r="I171" s="8"/>
       <c r="J171" s="18"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
@@ -3573,7 +3573,7 @@
       <c r="I172" s="8"/>
       <c r="J172" s="18"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
@@ -3585,7 +3585,7 @@
       <c r="I173" s="8"/>
       <c r="J173" s="18"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
@@ -3597,7 +3597,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="18"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
@@ -3609,7 +3609,7 @@
       <c r="I175" s="8"/>
       <c r="J175" s="18"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
@@ -3621,7 +3621,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="18"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
@@ -3633,7 +3633,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="18"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
@@ -3645,7 +3645,7 @@
       <c r="I178" s="8"/>
       <c r="J178" s="18"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
@@ -3657,7 +3657,7 @@
       <c r="I179" s="8"/>
       <c r="J179" s="18"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
@@ -3669,7 +3669,7 @@
       <c r="I180" s="8"/>
       <c r="J180" s="18"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
@@ -3681,7 +3681,7 @@
       <c r="I181" s="8"/>
       <c r="J181" s="18"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
@@ -3693,7 +3693,7 @@
       <c r="I182" s="8"/>
       <c r="J182" s="18"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
@@ -3705,7 +3705,7 @@
       <c r="I183" s="8"/>
       <c r="J183" s="18"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
@@ -3717,7 +3717,7 @@
       <c r="I184" s="8"/>
       <c r="J184" s="18"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
@@ -3729,7 +3729,7 @@
       <c r="I185" s="8"/>
       <c r="J185" s="18"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
@@ -3741,7 +3741,7 @@
       <c r="I186" s="8"/>
       <c r="J186" s="18"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
@@ -3753,7 +3753,7 @@
       <c r="I187" s="8"/>
       <c r="J187" s="18"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
@@ -3765,7 +3765,7 @@
       <c r="I188" s="8"/>
       <c r="J188" s="18"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
@@ -3777,7 +3777,7 @@
       <c r="I189" s="8"/>
       <c r="J189" s="18"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
@@ -3789,7 +3789,7 @@
       <c r="I190" s="8"/>
       <c r="J190" s="18"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
@@ -3801,7 +3801,7 @@
       <c r="I191" s="8"/>
       <c r="J191" s="18"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
@@ -3813,7 +3813,7 @@
       <c r="I192" s="8"/>
       <c r="J192" s="18"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
@@ -3825,7 +3825,7 @@
       <c r="I193" s="8"/>
       <c r="J193" s="18"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
@@ -3837,7 +3837,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="18"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
@@ -3849,7 +3849,7 @@
       <c r="I195" s="8"/>
       <c r="J195" s="18"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
@@ -3861,7 +3861,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="18"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
@@ -3873,7 +3873,7 @@
       <c r="I197" s="8"/>
       <c r="J197" s="18"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
@@ -3885,7 +3885,7 @@
       <c r="I198" s="8"/>
       <c r="J198" s="18"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
@@ -3897,7 +3897,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="18"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
@@ -3909,7 +3909,7 @@
       <c r="I200" s="8"/>
       <c r="J200" s="18"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="16"/>
       <c r="C201" s="10"/>
@@ -3949,15 +3949,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7265625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="25.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="45.7265625" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -3989,7 +3989,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3998,7 +3998,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -4007,7 +4007,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -4016,7 +4016,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -4025,7 +4025,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -4034,7 +4034,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -4043,7 +4043,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4052,7 +4052,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4061,7 +4061,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4070,7 +4070,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4079,7 +4079,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4088,7 +4088,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -4097,7 +4097,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4106,7 +4106,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4115,7 +4115,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4124,7 +4124,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4133,7 +4133,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4142,7 +4142,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -4151,7 +4151,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4160,7 +4160,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -4169,7 +4169,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4178,7 +4178,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4187,7 +4187,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4196,7 +4196,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4205,7 +4205,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4214,7 +4214,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4223,7 +4223,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4232,7 +4232,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4241,7 +4241,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4250,7 +4250,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -4259,7 +4259,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4268,7 +4268,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4277,7 +4277,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4286,7 +4286,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -4295,7 +4295,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4304,7 +4304,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4313,7 +4313,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4322,7 +4322,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4331,7 +4331,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4340,7 +4340,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4349,7 +4349,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4358,7 +4358,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4367,7 +4367,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4376,7 +4376,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4385,7 +4385,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4394,7 +4394,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4403,7 +4403,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4412,7 +4412,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4421,7 +4421,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4430,7 +4430,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4439,7 +4439,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4448,7 +4448,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4457,7 +4457,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4466,7 +4466,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4475,7 +4475,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4484,7 +4484,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4493,7 +4493,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -4502,7 +4502,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -4511,7 +4511,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -4520,7 +4520,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -4529,7 +4529,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -4538,7 +4538,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4547,7 +4547,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4556,7 +4556,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -4565,7 +4565,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -4574,7 +4574,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -4583,7 +4583,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -4592,7 +4592,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4601,7 +4601,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -4610,7 +4610,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -4619,7 +4619,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -4628,7 +4628,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -4637,7 +4637,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -4646,7 +4646,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -4655,7 +4655,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -4664,7 +4664,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -4673,7 +4673,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -4682,7 +4682,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -4691,7 +4691,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -4700,7 +4700,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -4709,7 +4709,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -4718,7 +4718,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -4727,7 +4727,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -4736,7 +4736,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4745,7 +4745,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -4754,7 +4754,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4763,7 +4763,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4772,7 +4772,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4781,7 +4781,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4790,7 +4790,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4799,7 +4799,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4808,7 +4808,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4817,7 +4817,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4826,7 +4826,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4835,7 +4835,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4844,7 +4844,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4853,7 +4853,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4862,7 +4862,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4871,7 +4871,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4880,7 +4880,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4889,7 +4889,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4898,7 +4898,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4907,7 +4907,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4916,7 +4916,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4925,7 +4925,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4934,7 +4934,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4943,7 +4943,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4952,7 +4952,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4961,7 +4961,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4970,7 +4970,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -4979,7 +4979,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -4988,7 +4988,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -4997,7 +4997,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5006,7 +5006,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5015,7 +5015,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5024,7 +5024,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5033,7 +5033,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5042,7 +5042,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5051,7 +5051,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5060,7 +5060,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5069,7 +5069,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5078,7 +5078,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5087,7 +5087,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5096,7 +5096,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5105,7 +5105,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5114,7 +5114,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5123,7 +5123,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -5132,7 +5132,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5141,7 +5141,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -5150,7 +5150,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -5159,7 +5159,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -5168,7 +5168,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -5177,7 +5177,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -5186,7 +5186,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -5195,7 +5195,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -5204,7 +5204,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -5213,7 +5213,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -5222,7 +5222,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -5231,7 +5231,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -5240,7 +5240,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -5249,7 +5249,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -5258,7 +5258,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -5267,7 +5267,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -5276,7 +5276,7 @@
       <c r="F145" s="8"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -5285,7 +5285,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -5294,7 +5294,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -5303,7 +5303,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -5312,7 +5312,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -5321,7 +5321,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -5330,7 +5330,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -5339,7 +5339,7 @@
       <c r="F152" s="8"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -5348,7 +5348,7 @@
       <c r="F153" s="8"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -5357,7 +5357,7 @@
       <c r="F154" s="8"/>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -5366,7 +5366,7 @@
       <c r="F155" s="8"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -5375,7 +5375,7 @@
       <c r="F156" s="8"/>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -5384,7 +5384,7 @@
       <c r="F157" s="8"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -5393,7 +5393,7 @@
       <c r="F158" s="8"/>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -5402,7 +5402,7 @@
       <c r="F159" s="8"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -5411,7 +5411,7 @@
       <c r="F160" s="8"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -5420,7 +5420,7 @@
       <c r="F161" s="8"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -5429,7 +5429,7 @@
       <c r="F162" s="8"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -5438,7 +5438,7 @@
       <c r="F163" s="8"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -5447,7 +5447,7 @@
       <c r="F164" s="8"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -5456,7 +5456,7 @@
       <c r="F165" s="8"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -5465,7 +5465,7 @@
       <c r="F166" s="8"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -5474,7 +5474,7 @@
       <c r="F167" s="8"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -5483,7 +5483,7 @@
       <c r="F168" s="8"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -5492,7 +5492,7 @@
       <c r="F169" s="8"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -5501,7 +5501,7 @@
       <c r="F170" s="8"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -5510,7 +5510,7 @@
       <c r="F171" s="8"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -5519,7 +5519,7 @@
       <c r="F172" s="8"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -5528,7 +5528,7 @@
       <c r="F173" s="8"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -5537,7 +5537,7 @@
       <c r="F174" s="8"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -5546,7 +5546,7 @@
       <c r="F175" s="8"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -5555,7 +5555,7 @@
       <c r="F176" s="8"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -5564,7 +5564,7 @@
       <c r="F177" s="8"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -5573,7 +5573,7 @@
       <c r="F178" s="8"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -5582,7 +5582,7 @@
       <c r="F179" s="8"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -5591,7 +5591,7 @@
       <c r="F180" s="8"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -5600,7 +5600,7 @@
       <c r="F181" s="8"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -5609,7 +5609,7 @@
       <c r="F182" s="8"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -5618,7 +5618,7 @@
       <c r="F183" s="8"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -5627,7 +5627,7 @@
       <c r="F184" s="8"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -5636,7 +5636,7 @@
       <c r="F185" s="8"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -5645,7 +5645,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -5654,7 +5654,7 @@
       <c r="F187" s="8"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -5663,7 +5663,7 @@
       <c r="F188" s="8"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -5672,7 +5672,7 @@
       <c r="F189" s="8"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -5681,7 +5681,7 @@
       <c r="F190" s="8"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -5690,7 +5690,7 @@
       <c r="F191" s="8"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -5699,7 +5699,7 @@
       <c r="F192" s="8"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -5708,7 +5708,7 @@
       <c r="F193" s="8"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -5717,7 +5717,7 @@
       <c r="F194" s="8"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -5726,7 +5726,7 @@
       <c r="F195" s="8"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -5735,7 +5735,7 @@
       <c r="F196" s="8"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -5744,7 +5744,7 @@
       <c r="F197" s="8"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -5753,7 +5753,7 @@
       <c r="F198" s="8"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -5762,7 +5762,7 @@
       <c r="F199" s="8"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -5771,7 +5771,7 @@
       <c r="F200" s="8"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -5803,16 +5803,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -5829,1400 +5829,1400 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
       <c r="D33" s="15"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
       <c r="D41" s="15"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
       <c r="D45" s="15"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
       <c r="D47" s="15"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
       <c r="D49" s="15"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
       <c r="D50" s="15"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
       <c r="D51" s="15"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
       <c r="D53" s="15"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
       <c r="D54" s="15"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
       <c r="D55" s="15"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
       <c r="D56" s="15"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
       <c r="D57" s="15"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
       <c r="D58" s="15"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
       <c r="D59" s="15"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
       <c r="D60" s="15"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
       <c r="D62" s="15"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
       <c r="D63" s="15"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
       <c r="D64" s="15"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
       <c r="D65" s="15"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
       <c r="D67" s="15"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
       <c r="D68" s="15"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
       <c r="D69" s="15"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
       <c r="D70" s="15"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
       <c r="D71" s="15"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
       <c r="D72" s="15"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
       <c r="D73" s="15"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
       <c r="D74" s="15"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
       <c r="D75" s="15"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
       <c r="D76" s="15"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
       <c r="D77" s="15"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
       <c r="D78" s="15"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
       <c r="D79" s="15"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
       <c r="D80" s="15"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
       <c r="D81" s="15"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
       <c r="D82" s="15"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
       <c r="D83" s="15"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
       <c r="D84" s="15"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
       <c r="D85" s="15"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
       <c r="D86" s="15"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
       <c r="D87" s="15"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
       <c r="D88" s="15"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
       <c r="D89" s="15"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
       <c r="D90" s="15"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
       <c r="D91" s="15"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
       <c r="D92" s="15"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
       <c r="D94" s="15"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
       <c r="D95" s="15"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
       <c r="D96" s="15"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
       <c r="D97" s="15"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
       <c r="D98" s="15"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
       <c r="D100" s="15"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
       <c r="D101" s="15"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
       <c r="D102" s="15"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
       <c r="D103" s="15"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
       <c r="D104" s="15"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
       <c r="D105" s="15"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
       <c r="D106" s="15"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
       <c r="D107" s="15"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
       <c r="D108" s="15"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
       <c r="D109" s="15"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
       <c r="D110" s="15"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
       <c r="D111" s="15"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
       <c r="D112" s="15"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
       <c r="D113" s="15"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
       <c r="D114" s="15"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
       <c r="D115" s="15"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
       <c r="D116" s="15"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
       <c r="D117" s="15"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
       <c r="D118" s="15"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
       <c r="D119" s="15"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
       <c r="D120" s="15"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
       <c r="D121" s="15"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
       <c r="D122" s="15"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
       <c r="D123" s="15"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
       <c r="D124" s="15"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
       <c r="D125" s="15"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
       <c r="D126" s="15"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
       <c r="D127" s="15"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
       <c r="D128" s="15"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
       <c r="D129" s="15"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
       <c r="D130" s="15"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
       <c r="D131" s="15"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
       <c r="D132" s="15"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
       <c r="D133" s="15"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="15"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
       <c r="D135" s="15"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
       <c r="D136" s="15"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
       <c r="D137" s="15"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
       <c r="D138" s="15"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
       <c r="D139" s="15"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
       <c r="D140" s="15"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
       <c r="D141" s="15"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
       <c r="D142" s="15"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
       <c r="D143" s="15"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
       <c r="D144" s="15"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
       <c r="D145" s="15"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
       <c r="D146" s="15"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
       <c r="D147" s="15"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
       <c r="D148" s="15"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
       <c r="D149" s="15"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
       <c r="D150" s="15"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
       <c r="D151" s="15"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
       <c r="D152" s="15"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
       <c r="D153" s="15"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
       <c r="D154" s="15"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
       <c r="D155" s="15"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
       <c r="D156" s="15"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
       <c r="D157" s="15"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
       <c r="D158" s="15"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
       <c r="D159" s="15"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
       <c r="D160" s="15"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
       <c r="D161" s="15"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
       <c r="D162" s="15"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
       <c r="D163" s="15"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
       <c r="D164" s="15"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
       <c r="D165" s="15"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
       <c r="D166" s="15"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
       <c r="D167" s="15"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
       <c r="D168" s="15"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
       <c r="D169" s="15"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
       <c r="D170" s="15"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
       <c r="D171" s="15"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
       <c r="D172" s="15"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
       <c r="D173" s="15"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
       <c r="D174" s="15"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
       <c r="D175" s="15"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
       <c r="D176" s="15"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
       <c r="D177" s="15"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
       <c r="D179" s="15"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
       <c r="D180" s="15"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
       <c r="D182" s="15"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
       <c r="D183" s="15"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
       <c r="D184" s="15"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
       <c r="D185" s="15"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
       <c r="D186" s="15"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
       <c r="D187" s="15"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
       <c r="D188" s="15"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
       <c r="D189" s="15"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
       <c r="D190" s="15"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
       <c r="D191" s="15"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
       <c r="D192" s="15"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
       <c r="D193" s="15"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
       <c r="D194" s="15"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
       <c r="D195" s="15"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
       <c r="D196" s="15"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
       <c r="D197" s="15"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
       <c r="D198" s="15"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
       <c r="D199" s="15"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
       <c r="D200" s="15"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -7254,14 +7254,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -7272,1002 +7272,1002 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>
@@ -8289,14 +8289,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="45.7265625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -8307,1002 +8307,1002 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>

--- a/Workbooks/EN/Processes.xlsx
+++ b/Workbooks/EN/Processes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24D786-70EA-4874-9F23-8C2E709B611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E0EEC1-8797-40D3-8643-E28598611E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58185" yWindow="1305" windowWidth="36660" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="690" windowWidth="28800" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
     <sheet name="Update to Latest Package" sheetId="5" r:id="rId4"/>
     <sheet name="Rollback to Previous Package" sheetId="6" r:id="rId5"/>
+    <sheet name="Update to Specific Package" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -92,6 +93,10 @@
   <si>
     <t>Input Arguments</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Package Version</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -291,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -338,20 +343,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -362,7 +384,57 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -704,6 +776,28 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1232,21 +1326,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:L201" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:L201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:L201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder ID" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Folder Name" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{B6687083-5003-478E-AAED-DE2CA3FDF2A7}" name="Description" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{BF67D0B5-60F7-4CEE-BD11-F0107B63513B}" name="Input Arguments" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder ID" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="Folder Name" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="Process ID" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="Process Name" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{B6687083-5003-478E-AAED-DE2CA3FDF2A7}" name="Description" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="Process Key" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="Package Name" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="Current Package Version" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="All Package Versions" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{BF67D0B5-60F7-4CEE-BD11-F0107B63513B}" name="Input Arguments" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="Environment ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Environment Name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,15 +1350,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{D19AE82E-DF2B-4BB7-9C7A-9FF78AC9F61B}" name="Description" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{453F806F-ED57-460D-9946-08207735D4E0}" name="Input Arguments" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Folder Name" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="Environment Name" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package Name" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="Package Version" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="Process Name" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D19AE82E-DF2B-4BB7-9C7A-9FF78AC9F61B}" name="Description" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{453F806F-ED57-460D-9946-08207735D4E0}" name="Input Arguments" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="Process ID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1274,11 +1368,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="Folder Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="Process ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Process Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1288,9 +1382,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6D5E497-F7AF-4CA2-8AEA-598B0549C51B}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="Folder Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="Process Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1300,9 +1394,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7FCDC37A-F154-4F55-8BD2-2B8B7EE86B58}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="Folder Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="Process Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="Result" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BA4F82A-98C9-47B3-9C5B-3F1596A84466}" name="Table13567" displayName="Table13567" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{86383ADD-CEAE-4EBA-BB99-898153A27811}" name="Folder Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7FFF0BC7-8DC0-47BE-B9D4-870199021E74}" name="Process Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A905598C-8031-42F3-8D4E-AA36136571C2}" name="Package Version" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EF337724-EC42-4BD2-ADD5-68EFE126E241}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1577,7 +1684,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="17" customWidth="1"/>
@@ -1591,7 +1698,7 @@
     <col min="13" max="13" width="25.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1737,7 @@
       </c>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1645,7 +1752,7 @@
       <c r="L2" s="18"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1660,7 +1767,7 @@
       <c r="L3" s="18"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1675,7 +1782,7 @@
       <c r="L4" s="18"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1690,7 +1797,7 @@
       <c r="L5" s="18"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1705,7 +1812,7 @@
       <c r="L6" s="18"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1720,7 +1827,7 @@
       <c r="L7" s="18"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1735,7 +1842,7 @@
       <c r="L8" s="18"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1750,7 +1857,7 @@
       <c r="L9" s="18"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1765,7 +1872,7 @@
       <c r="L10" s="18"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
@@ -1780,7 +1887,7 @@
       <c r="L11" s="18"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -1795,7 +1902,7 @@
       <c r="L12" s="18"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -1810,7 +1917,7 @@
       <c r="L13" s="18"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1825,7 +1932,7 @@
       <c r="L14" s="18"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -1840,7 +1947,7 @@
       <c r="L15" s="18"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -1855,7 +1962,7 @@
       <c r="L16" s="18"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
@@ -1870,7 +1977,7 @@
       <c r="L17" s="18"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -1885,7 +1992,7 @@
       <c r="L18" s="18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -1902,7 +2009,7 @@
       </c>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1917,7 +2024,7 @@
       <c r="L20" s="18"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -1932,7 +2039,7 @@
       <c r="L21" s="18"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1947,7 +2054,7 @@
       <c r="L22" s="18"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
@@ -1962,7 +2069,7 @@
       <c r="L23" s="18"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
@@ -1977,7 +2084,7 @@
       <c r="L24" s="18"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
@@ -1992,7 +2099,7 @@
       <c r="L25" s="18"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
@@ -2007,7 +2114,7 @@
       <c r="L26" s="18"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
@@ -2022,7 +2129,7 @@
       <c r="L27" s="18"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
@@ -2037,7 +2144,7 @@
       <c r="L28" s="18"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
@@ -2052,7 +2159,7 @@
       <c r="L29" s="18"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
@@ -2067,7 +2174,7 @@
       <c r="L30" s="18"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
@@ -2082,7 +2189,7 @@
       <c r="L31" s="18"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
@@ -2097,7 +2204,7 @@
       <c r="L32" s="18"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
@@ -2112,7 +2219,7 @@
       <c r="L33" s="18"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
@@ -2127,7 +2234,7 @@
       <c r="L34" s="18"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
@@ -2142,7 +2249,7 @@
       <c r="L35" s="18"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
@@ -2157,7 +2264,7 @@
       <c r="L36" s="18"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -2172,7 +2279,7 @@
       <c r="L37" s="18"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
@@ -2187,7 +2294,7 @@
       <c r="L38" s="18"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
@@ -2202,7 +2309,7 @@
       <c r="L39" s="18"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
@@ -2217,7 +2324,7 @@
       <c r="L40" s="18"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
@@ -2232,7 +2339,7 @@
       <c r="L41" s="18"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
@@ -2247,7 +2354,7 @@
       <c r="L42" s="18"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
@@ -2262,7 +2369,7 @@
       <c r="L43" s="18"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
@@ -2277,7 +2384,7 @@
       <c r="L44" s="18"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
@@ -2292,7 +2399,7 @@
       <c r="L45" s="18"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
@@ -2307,7 +2414,7 @@
       <c r="L46" s="18"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
@@ -2322,7 +2429,7 @@
       <c r="L47" s="18"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
@@ -2337,7 +2444,7 @@
       <c r="L48" s="18"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
@@ -2352,7 +2459,7 @@
       <c r="L49" s="18"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
@@ -2367,7 +2474,7 @@
       <c r="L50" s="18"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
@@ -2382,7 +2489,7 @@
       <c r="L51" s="18"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
@@ -2397,7 +2504,7 @@
       <c r="L52" s="18"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
@@ -2412,7 +2519,7 @@
       <c r="L53" s="18"/>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
@@ -2427,7 +2534,7 @@
       <c r="L54" s="18"/>
       <c r="M54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
@@ -2442,7 +2549,7 @@
       <c r="L55" s="18"/>
       <c r="M55"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
@@ -2457,7 +2564,7 @@
       <c r="L56" s="18"/>
       <c r="M56"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
@@ -2472,7 +2579,7 @@
       <c r="L57" s="18"/>
       <c r="M57"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
@@ -2487,7 +2594,7 @@
       <c r="L58" s="18"/>
       <c r="M58"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
@@ -2502,7 +2609,7 @@
       <c r="L59" s="18"/>
       <c r="M59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
@@ -2517,7 +2624,7 @@
       <c r="L60" s="18"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
@@ -2532,7 +2639,7 @@
       <c r="L61" s="18"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
@@ -2547,7 +2654,7 @@
       <c r="L62" s="18"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
@@ -2562,7 +2669,7 @@
       <c r="L63" s="18"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
@@ -2577,7 +2684,7 @@
       <c r="L64" s="18"/>
       <c r="M64"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
@@ -2592,7 +2699,7 @@
       <c r="L65" s="18"/>
       <c r="M65"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
@@ -2607,7 +2714,7 @@
       <c r="L66" s="18"/>
       <c r="M66"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
@@ -2622,7 +2729,7 @@
       <c r="L67" s="18"/>
       <c r="M67"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
@@ -2637,7 +2744,7 @@
       <c r="L68" s="18"/>
       <c r="M68"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
@@ -2652,7 +2759,7 @@
       <c r="L69" s="18"/>
       <c r="M69"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
@@ -2667,7 +2774,7 @@
       <c r="L70" s="18"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
@@ -2682,7 +2789,7 @@
       <c r="L71" s="18"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -2697,7 +2804,7 @@
       <c r="L72" s="18"/>
       <c r="M72"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
@@ -2712,7 +2819,7 @@
       <c r="L73" s="18"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
@@ -2727,7 +2834,7 @@
       <c r="L74" s="18"/>
       <c r="M74"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
@@ -2742,7 +2849,7 @@
       <c r="L75" s="18"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -2757,7 +2864,7 @@
       <c r="L76" s="18"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -2772,7 +2879,7 @@
       <c r="L77" s="18"/>
       <c r="M77"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
@@ -2787,7 +2894,7 @@
       <c r="L78" s="18"/>
       <c r="M78"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
@@ -2802,7 +2909,7 @@
       <c r="L79" s="18"/>
       <c r="M79"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
@@ -2817,7 +2924,7 @@
       <c r="L80" s="18"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
@@ -2832,7 +2939,7 @@
       <c r="L81" s="18"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
@@ -2847,7 +2954,7 @@
       <c r="L82" s="18"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
@@ -2862,7 +2969,7 @@
       <c r="L83" s="18"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
@@ -2877,7 +2984,7 @@
       <c r="L84" s="18"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2892,7 +2999,7 @@
       <c r="L85" s="18"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
@@ -2907,7 +3014,7 @@
       <c r="L86" s="18"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
@@ -2922,7 +3029,7 @@
       <c r="L87" s="18"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
@@ -2937,7 +3044,7 @@
       <c r="L88" s="18"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
@@ -2952,7 +3059,7 @@
       <c r="L89" s="18"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
@@ -2967,7 +3074,7 @@
       <c r="L90" s="18"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
@@ -2982,7 +3089,7 @@
       <c r="L91" s="18"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
@@ -2997,7 +3104,7 @@
       <c r="L92" s="18"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
@@ -3012,7 +3119,7 @@
       <c r="L93" s="18"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
@@ -3027,7 +3134,7 @@
       <c r="L94" s="18"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
@@ -3042,7 +3149,7 @@
       <c r="L95" s="18"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -3057,7 +3164,7 @@
       <c r="L96" s="18"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
@@ -3072,7 +3179,7 @@
       <c r="L97" s="18"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
@@ -3087,7 +3194,7 @@
       <c r="L98" s="18"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
@@ -3102,7 +3209,7 @@
       <c r="L99" s="18"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
@@ -3117,7 +3224,7 @@
       <c r="L100" s="18"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
@@ -3132,7 +3239,7 @@
       <c r="L101" s="18"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
@@ -3147,7 +3254,7 @@
       <c r="L102" s="18"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
@@ -3162,7 +3269,7 @@
       <c r="L103" s="18"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
@@ -3177,7 +3284,7 @@
       <c r="L104" s="18"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
@@ -3192,7 +3299,7 @@
       <c r="L105" s="18"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
@@ -3207,7 +3314,7 @@
       <c r="L106" s="18"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
@@ -3222,7 +3329,7 @@
       <c r="L107" s="18"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
@@ -3237,7 +3344,7 @@
       <c r="L108" s="18"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
@@ -3252,7 +3359,7 @@
       <c r="L109" s="18"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
@@ -3267,7 +3374,7 @@
       <c r="L110" s="18"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
@@ -3282,7 +3389,7 @@
       <c r="L111" s="18"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
@@ -3297,7 +3404,7 @@
       <c r="L112" s="18"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
@@ -3312,7 +3419,7 @@
       <c r="L113" s="18"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
@@ -3327,7 +3434,7 @@
       <c r="L114" s="18"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
@@ -3342,7 +3449,7 @@
       <c r="L115" s="18"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
@@ -3357,7 +3464,7 @@
       <c r="L116" s="18"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
@@ -3372,7 +3479,7 @@
       <c r="L117" s="18"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
@@ -3387,7 +3494,7 @@
       <c r="L118" s="18"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
@@ -3402,7 +3509,7 @@
       <c r="L119" s="18"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
@@ -3417,7 +3524,7 @@
       <c r="L120" s="18"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
@@ -3432,7 +3539,7 @@
       <c r="L121" s="18"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
@@ -3447,7 +3554,7 @@
       <c r="L122" s="18"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
@@ -3462,7 +3569,7 @@
       <c r="L123" s="18"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
@@ -3477,7 +3584,7 @@
       <c r="L124" s="18"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
@@ -3492,7 +3599,7 @@
       <c r="L125" s="18"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
@@ -3507,7 +3614,7 @@
       <c r="L126" s="18"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
@@ -3522,7 +3629,7 @@
       <c r="L127" s="18"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
@@ -3537,7 +3644,7 @@
       <c r="L128" s="18"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
@@ -3552,7 +3659,7 @@
       <c r="L129" s="18"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
@@ -3567,7 +3674,7 @@
       <c r="L130" s="18"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
@@ -3582,7 +3689,7 @@
       <c r="L131" s="18"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
@@ -3597,7 +3704,7 @@
       <c r="L132" s="18"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
@@ -3612,7 +3719,7 @@
       <c r="L133" s="18"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
@@ -3627,7 +3734,7 @@
       <c r="L134" s="18"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
@@ -3642,7 +3749,7 @@
       <c r="L135" s="18"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
@@ -3657,7 +3764,7 @@
       <c r="L136" s="18"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
@@ -3672,7 +3779,7 @@
       <c r="L137" s="18"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
@@ -3687,7 +3794,7 @@
       <c r="L138" s="18"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
@@ -3702,7 +3809,7 @@
       <c r="L139" s="18"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
@@ -3717,7 +3824,7 @@
       <c r="L140" s="18"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
@@ -3732,7 +3839,7 @@
       <c r="L141" s="18"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
@@ -3747,7 +3854,7 @@
       <c r="L142" s="18"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
@@ -3762,7 +3869,7 @@
       <c r="L143" s="18"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
@@ -3777,7 +3884,7 @@
       <c r="L144" s="18"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
@@ -3792,7 +3899,7 @@
       <c r="L145" s="18"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
@@ -3807,7 +3914,7 @@
       <c r="L146" s="18"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
@@ -3822,7 +3929,7 @@
       <c r="L147" s="18"/>
       <c r="M147"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
@@ -3837,7 +3944,7 @@
       <c r="L148" s="18"/>
       <c r="M148"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
@@ -3852,7 +3959,7 @@
       <c r="L149" s="18"/>
       <c r="M149"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
@@ -3867,7 +3974,7 @@
       <c r="L150" s="18"/>
       <c r="M150"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
@@ -3882,7 +3989,7 @@
       <c r="L151" s="18"/>
       <c r="M151"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
@@ -3897,7 +4004,7 @@
       <c r="L152" s="18"/>
       <c r="M152"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
@@ -3912,7 +4019,7 @@
       <c r="L153" s="18"/>
       <c r="M153"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
@@ -3927,7 +4034,7 @@
       <c r="L154" s="18"/>
       <c r="M154"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
@@ -3942,7 +4049,7 @@
       <c r="L155" s="18"/>
       <c r="M155"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
@@ -3957,7 +4064,7 @@
       <c r="L156" s="18"/>
       <c r="M156"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
@@ -3972,7 +4079,7 @@
       <c r="L157" s="18"/>
       <c r="M157"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
@@ -3987,7 +4094,7 @@
       <c r="L158" s="18"/>
       <c r="M158"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
@@ -4002,7 +4109,7 @@
       <c r="L159" s="18"/>
       <c r="M159"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
@@ -4017,7 +4124,7 @@
       <c r="L160" s="18"/>
       <c r="M160"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
@@ -4032,7 +4139,7 @@
       <c r="L161" s="18"/>
       <c r="M161"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
@@ -4047,7 +4154,7 @@
       <c r="L162" s="18"/>
       <c r="M162"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -4062,7 +4169,7 @@
       <c r="L163" s="18"/>
       <c r="M163"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
@@ -4077,7 +4184,7 @@
       <c r="L164" s="18"/>
       <c r="M164"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
@@ -4092,7 +4199,7 @@
       <c r="L165" s="18"/>
       <c r="M165"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
@@ -4107,7 +4214,7 @@
       <c r="L166" s="18"/>
       <c r="M166"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
@@ -4122,7 +4229,7 @@
       <c r="L167" s="18"/>
       <c r="M167"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
@@ -4137,7 +4244,7 @@
       <c r="L168" s="18"/>
       <c r="M168"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
@@ -4152,7 +4259,7 @@
       <c r="L169" s="18"/>
       <c r="M169"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
@@ -4167,7 +4274,7 @@
       <c r="L170" s="18"/>
       <c r="M170"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
@@ -4182,7 +4289,7 @@
       <c r="L171" s="18"/>
       <c r="M171"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
@@ -4197,7 +4304,7 @@
       <c r="L172" s="18"/>
       <c r="M172"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
@@ -4212,7 +4319,7 @@
       <c r="L173" s="18"/>
       <c r="M173"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
@@ -4227,7 +4334,7 @@
       <c r="L174" s="18"/>
       <c r="M174"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
@@ -4242,7 +4349,7 @@
       <c r="L175" s="18"/>
       <c r="M175"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
@@ -4257,7 +4364,7 @@
       <c r="L176" s="18"/>
       <c r="M176"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
@@ -4272,7 +4379,7 @@
       <c r="L177" s="18"/>
       <c r="M177"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
@@ -4287,7 +4394,7 @@
       <c r="L178" s="18"/>
       <c r="M178"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
@@ -4302,7 +4409,7 @@
       <c r="L179" s="18"/>
       <c r="M179"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
@@ -4317,7 +4424,7 @@
       <c r="L180" s="18"/>
       <c r="M180"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
@@ -4332,7 +4439,7 @@
       <c r="L181" s="18"/>
       <c r="M181"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
@@ -4347,7 +4454,7 @@
       <c r="L182" s="18"/>
       <c r="M182"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
@@ -4362,7 +4469,7 @@
       <c r="L183" s="18"/>
       <c r="M183"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
@@ -4377,7 +4484,7 @@
       <c r="L184" s="18"/>
       <c r="M184"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
@@ -4392,7 +4499,7 @@
       <c r="L185" s="18"/>
       <c r="M185"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
@@ -4407,7 +4514,7 @@
       <c r="L186" s="18"/>
       <c r="M186"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
@@ -4422,7 +4529,7 @@
       <c r="L187" s="18"/>
       <c r="M187"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
@@ -4437,7 +4544,7 @@
       <c r="L188" s="18"/>
       <c r="M188"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
@@ -4452,7 +4559,7 @@
       <c r="L189" s="18"/>
       <c r="M189"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
@@ -4467,7 +4574,7 @@
       <c r="L190" s="18"/>
       <c r="M190"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
@@ -4482,7 +4589,7 @@
       <c r="L191" s="18"/>
       <c r="M191"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
@@ -4497,7 +4604,7 @@
       <c r="L192" s="18"/>
       <c r="M192"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
@@ -4512,7 +4619,7 @@
       <c r="L193" s="18"/>
       <c r="M193"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
@@ -4527,7 +4634,7 @@
       <c r="L194" s="18"/>
       <c r="M194"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
@@ -4542,7 +4649,7 @@
       <c r="L195" s="18"/>
       <c r="M195"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
@@ -4557,7 +4664,7 @@
       <c r="L196" s="18"/>
       <c r="M196"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
@@ -4572,7 +4679,7 @@
       <c r="L197" s="18"/>
       <c r="M197"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
@@ -4587,7 +4694,7 @@
       <c r="L198" s="18"/>
       <c r="M198"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
@@ -4602,7 +4709,7 @@
       <c r="L199" s="18"/>
       <c r="M199"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
@@ -4617,7 +4724,7 @@
       <c r="L200" s="18"/>
       <c r="M200"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="9"/>
       <c r="B201" s="16"/>
       <c r="C201" s="10"/>
@@ -4661,7 +4768,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="25.75" style="17" customWidth="1"/>
     <col min="4" max="7" width="25.75" style="1" customWidth="1"/>
@@ -4669,7 +4776,7 @@
     <col min="9" max="9" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -4698,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4709,7 +4816,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -4720,7 +4827,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -4731,7 +4838,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -4742,7 +4849,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -4753,7 +4860,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -4764,7 +4871,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -4775,7 +4882,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4786,7 +4893,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4797,7 +4904,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4808,7 +4915,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4819,7 +4926,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4830,7 +4937,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -4841,7 +4948,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4852,7 +4959,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4863,7 +4970,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4874,7 +4981,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4885,7 +4992,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4896,7 +5003,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -4907,7 +5014,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4918,7 +5025,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -4929,7 +5036,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4940,7 +5047,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4951,7 +5058,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4962,7 +5069,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4973,7 +5080,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4984,7 +5091,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4995,7 +5102,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5006,7 +5113,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5017,7 +5124,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5028,7 +5135,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5039,7 +5146,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5050,7 +5157,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5061,7 +5168,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5072,7 +5179,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5083,7 +5190,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5094,7 +5201,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5105,7 +5212,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5116,7 +5223,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -5127,7 +5234,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5138,7 +5245,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5149,7 +5256,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5160,7 +5267,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -5171,7 +5278,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -5182,7 +5289,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -5193,7 +5300,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -5204,7 +5311,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -5215,7 +5322,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -5226,7 +5333,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -5237,7 +5344,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -5248,7 +5355,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -5259,7 +5366,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -5270,7 +5377,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -5281,7 +5388,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -5292,7 +5399,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -5303,7 +5410,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -5314,7 +5421,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -5325,7 +5432,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -5336,7 +5443,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -5347,7 +5454,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -5358,7 +5465,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -5369,7 +5476,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5380,7 +5487,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -5391,7 +5498,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -5402,7 +5509,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -5413,7 +5520,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -5424,7 +5531,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -5435,7 +5542,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -5446,7 +5553,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -5457,7 +5564,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -5468,7 +5575,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -5479,7 +5586,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -5490,7 +5597,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -5501,7 +5608,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -5512,7 +5619,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -5523,7 +5630,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -5534,7 +5641,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -5545,7 +5652,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -5556,7 +5663,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -5567,7 +5674,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5578,7 +5685,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -5589,7 +5696,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -5600,7 +5707,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -5611,7 +5718,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -5622,7 +5729,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -5633,7 +5740,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5644,7 +5751,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -5655,7 +5762,7 @@
       <c r="H88" s="8"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -5666,7 +5773,7 @@
       <c r="H89" s="8"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -5677,7 +5784,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -5688,7 +5795,7 @@
       <c r="H91" s="8"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -5699,7 +5806,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -5710,7 +5817,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5721,7 +5828,7 @@
       <c r="H94" s="8"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -5732,7 +5839,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -5743,7 +5850,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -5754,7 +5861,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -5765,7 +5872,7 @@
       <c r="H98" s="8"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -5776,7 +5883,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -5787,7 +5894,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -5798,7 +5905,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -5809,7 +5916,7 @@
       <c r="H102" s="8"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -5820,7 +5927,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -5831,7 +5938,7 @@
       <c r="H104" s="8"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5842,7 +5949,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -5853,7 +5960,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -5864,7 +5971,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5875,7 +5982,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5886,7 +5993,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -5897,7 +6004,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -5908,7 +6015,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5919,7 +6026,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5930,7 +6037,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5941,7 +6048,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5952,7 +6059,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5963,7 +6070,7 @@
       <c r="H116" s="8"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5974,7 +6081,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5985,7 +6092,7 @@
       <c r="H118" s="8"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5996,7 +6103,7 @@
       <c r="H119" s="8"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -6007,7 +6114,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -6018,7 +6125,7 @@
       <c r="H121" s="8"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -6029,7 +6136,7 @@
       <c r="H122" s="8"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -6040,7 +6147,7 @@
       <c r="H123" s="8"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -6051,7 +6158,7 @@
       <c r="H124" s="8"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -6062,7 +6169,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -6073,7 +6180,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -6084,7 +6191,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -6095,7 +6202,7 @@
       <c r="H128" s="8"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -6106,7 +6213,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -6117,7 +6224,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -6128,7 +6235,7 @@
       <c r="H131" s="8"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -6139,7 +6246,7 @@
       <c r="H132" s="8"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -6150,7 +6257,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -6161,7 +6268,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -6172,7 +6279,7 @@
       <c r="H135" s="8"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -6183,7 +6290,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -6194,7 +6301,7 @@
       <c r="H137" s="8"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -6205,7 +6312,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -6216,7 +6323,7 @@
       <c r="H139" s="8"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -6227,7 +6334,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -6238,7 +6345,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -6249,7 +6356,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -6260,7 +6367,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -6271,7 +6378,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -6282,7 +6389,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -6293,7 +6400,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -6304,7 +6411,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -6315,7 +6422,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -6326,7 +6433,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -6337,7 +6444,7 @@
       <c r="H150" s="8"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -6348,7 +6455,7 @@
       <c r="H151" s="8"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -6359,7 +6466,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -6370,7 +6477,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -6381,7 +6488,7 @@
       <c r="H154" s="8"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -6392,7 +6499,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -6403,7 +6510,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -6414,7 +6521,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -6425,7 +6532,7 @@
       <c r="H158" s="8"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -6436,7 +6543,7 @@
       <c r="H159" s="8"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -6447,7 +6554,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -6458,7 +6565,7 @@
       <c r="H161" s="8"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -6469,7 +6576,7 @@
       <c r="H162" s="8"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -6480,7 +6587,7 @@
       <c r="H163" s="8"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -6491,7 +6598,7 @@
       <c r="H164" s="8"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -6502,7 +6609,7 @@
       <c r="H165" s="8"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -6513,7 +6620,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -6524,7 +6631,7 @@
       <c r="H167" s="8"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -6535,7 +6642,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -6546,7 +6653,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -6557,7 +6664,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -6568,7 +6675,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -6579,7 +6686,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -6590,7 +6697,7 @@
       <c r="H173" s="8"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -6601,7 +6708,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -6612,7 +6719,7 @@
       <c r="H175" s="8"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -6623,7 +6730,7 @@
       <c r="H176" s="8"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -6634,7 +6741,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -6645,7 +6752,7 @@
       <c r="H178" s="8"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -6656,7 +6763,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -6667,7 +6774,7 @@
       <c r="H180" s="8"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -6678,7 +6785,7 @@
       <c r="H181" s="8"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -6689,7 +6796,7 @@
       <c r="H182" s="8"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -6700,7 +6807,7 @@
       <c r="H183" s="8"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -6711,7 +6818,7 @@
       <c r="H184" s="8"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -6722,7 +6829,7 @@
       <c r="H185" s="8"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -6733,7 +6840,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -6744,7 +6851,7 @@
       <c r="H187" s="8"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -6755,7 +6862,7 @@
       <c r="H188" s="8"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -6766,7 +6873,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -6777,7 +6884,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -6788,7 +6895,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -6799,7 +6906,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -6810,7 +6917,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -6821,7 +6928,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -6832,7 +6939,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -6843,7 +6950,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -6854,7 +6961,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -6865,7 +6972,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -6876,7 +6983,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -6887,7 +6994,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -6921,7 +7028,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="17" customWidth="1"/>
@@ -6930,7 +7037,7 @@
     <col min="5" max="5" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -6947,1400 +7054,1400 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
       <c r="D33" s="15"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
       <c r="D41" s="15"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
       <c r="D45" s="15"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
       <c r="D47" s="15"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
       <c r="D49" s="15"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
       <c r="D50" s="15"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
       <c r="D51" s="15"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
       <c r="D53" s="15"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
       <c r="D54" s="15"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
       <c r="D55" s="15"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
       <c r="D56" s="15"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
       <c r="D57" s="15"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
       <c r="D58" s="15"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
       <c r="D59" s="15"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
       <c r="D60" s="15"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
       <c r="D62" s="15"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
       <c r="D63" s="15"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
       <c r="D64" s="15"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
       <c r="D65" s="15"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
       <c r="D67" s="15"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
       <c r="D68" s="15"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
       <c r="D69" s="15"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
       <c r="D70" s="15"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
       <c r="D71" s="15"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
       <c r="D72" s="15"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
       <c r="D73" s="15"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
       <c r="D74" s="15"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
       <c r="D75" s="15"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
       <c r="D76" s="15"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
       <c r="D77" s="15"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
       <c r="D78" s="15"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
       <c r="D79" s="15"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
       <c r="D80" s="15"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
       <c r="D81" s="15"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
       <c r="D82" s="15"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
       <c r="D83" s="15"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
       <c r="D84" s="15"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
       <c r="D85" s="15"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
       <c r="D86" s="15"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
       <c r="D87" s="15"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
       <c r="D88" s="15"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
       <c r="D89" s="15"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
       <c r="D90" s="15"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
       <c r="D91" s="15"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
       <c r="D92" s="15"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
       <c r="D94" s="15"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
       <c r="D95" s="15"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
       <c r="D96" s="15"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
       <c r="D97" s="15"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
       <c r="D98" s="15"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
       <c r="D100" s="15"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
       <c r="D101" s="15"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
       <c r="D102" s="15"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
       <c r="D103" s="15"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
       <c r="D104" s="15"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
       <c r="D105" s="15"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
       <c r="D106" s="15"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
       <c r="D107" s="15"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
       <c r="D108" s="15"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
       <c r="D109" s="15"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
       <c r="D110" s="15"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
       <c r="D111" s="15"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
       <c r="D112" s="15"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
       <c r="D113" s="15"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
       <c r="D114" s="15"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
       <c r="D115" s="15"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
       <c r="D116" s="15"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
       <c r="D117" s="15"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
       <c r="D118" s="15"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
       <c r="D119" s="15"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
       <c r="D120" s="15"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
       <c r="D121" s="15"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
       <c r="D122" s="15"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
       <c r="D123" s="15"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
       <c r="D124" s="15"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
       <c r="D125" s="15"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
       <c r="D126" s="15"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
       <c r="D127" s="15"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
       <c r="D128" s="15"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
       <c r="D129" s="15"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
       <c r="D130" s="15"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
       <c r="D131" s="15"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
       <c r="D132" s="15"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
       <c r="D133" s="15"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="15"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
       <c r="D135" s="15"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
       <c r="D136" s="15"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
       <c r="D137" s="15"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
       <c r="D138" s="15"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
       <c r="D139" s="15"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
       <c r="D140" s="15"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
       <c r="D141" s="15"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
       <c r="D142" s="15"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
       <c r="D143" s="15"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
       <c r="D144" s="15"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
       <c r="D145" s="15"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
       <c r="D146" s="15"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
       <c r="D147" s="15"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
       <c r="D148" s="15"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
       <c r="D149" s="15"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
       <c r="D150" s="15"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
       <c r="D151" s="15"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
       <c r="D152" s="15"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
       <c r="D153" s="15"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
       <c r="D154" s="15"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
       <c r="D155" s="15"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
       <c r="D156" s="15"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
       <c r="D157" s="15"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
       <c r="D158" s="15"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
       <c r="D159" s="15"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
       <c r="D160" s="15"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
       <c r="D161" s="15"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
       <c r="D162" s="15"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
       <c r="D163" s="15"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
       <c r="D164" s="15"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
       <c r="D165" s="15"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
       <c r="D166" s="15"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
       <c r="D167" s="15"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
       <c r="D168" s="15"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
       <c r="D169" s="15"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
       <c r="D170" s="15"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
       <c r="D171" s="15"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
       <c r="D172" s="15"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
       <c r="D173" s="15"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
       <c r="D174" s="15"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
       <c r="D175" s="15"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
       <c r="D176" s="15"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
       <c r="D177" s="15"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
       <c r="D179" s="15"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
       <c r="D180" s="15"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
       <c r="D182" s="15"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
       <c r="D183" s="15"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
       <c r="D184" s="15"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
       <c r="D185" s="15"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
       <c r="D186" s="15"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
       <c r="D187" s="15"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
       <c r="D188" s="15"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
       <c r="D189" s="15"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
       <c r="D190" s="15"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
       <c r="D191" s="15"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
       <c r="D192" s="15"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
       <c r="D193" s="15"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
       <c r="D194" s="15"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
       <c r="D195" s="15"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
       <c r="D196" s="15"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
       <c r="D197" s="15"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
       <c r="D198" s="15"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
       <c r="D199" s="15"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
       <c r="D200" s="15"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -8373,14 +8480,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="20" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -8391,1002 +8498,1002 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>
@@ -9409,14 +9516,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="20" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -9427,1005 +9534,2244 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E6B955-DC5C-4A3B-93AC-08FEC302FD19}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
+    <col min="2" max="3" width="25.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="14"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="14"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="14"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="14"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="14"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="14"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="14"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="14"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="14"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="14"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="14"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="14"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="14"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="14"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="14"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="14"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="14"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="14"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="14"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="14"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="14"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="14"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="14"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="14"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
